--- a/artfynd/A 30779-2023.xlsx
+++ b/artfynd/A 30779-2023.xlsx
@@ -1507,7 +1507,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111533937</v>
+        <v>111534059</v>
       </c>
       <c r="B9" t="n">
         <v>103288</v>
@@ -1540,7 +1540,16 @@
           <t>Sw.</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1548,13 +1557,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>594785.00034439</v>
+        <v>594794.6408354465</v>
       </c>
       <c r="R9" t="n">
-        <v>6396145.498780883</v>
+        <v>6396122.73565076</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1583,7 +1592,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1593,7 +1602,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1620,7 +1629,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111534059</v>
+        <v>111534246</v>
       </c>
       <c r="B10" t="n">
         <v>103288</v>
@@ -1655,7 +1664,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1666,17 +1675,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Stenhagen (Stenhagen), Sm</t>
+          <t>Dagsbo; Verkebäcksviken (Dagsbo; Verkebäcksviken), Sm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>594794.6408354465</v>
+        <v>594820.5764323578</v>
       </c>
       <c r="R10" t="n">
-        <v>6396122.73565076</v>
+        <v>6396044.751846077</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1705,7 +1714,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1715,7 +1724,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1742,10 +1751,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111531519</v>
+        <v>111533906</v>
       </c>
       <c r="B11" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1754,47 +1763,51 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>upprörd, varnande</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Storön (Storön), Sm</t>
+          <t>Stenhagen (Stenhagen), Sm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>595038.3009655987</v>
+        <v>594786.359476931</v>
       </c>
       <c r="R11" t="n">
-        <v>6396057.353625069</v>
+        <v>6396133.234054895</v>
       </c>
       <c r="S11" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1860,10 +1873,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111538147</v>
+        <v>111531519</v>
       </c>
       <c r="B12" t="n">
-        <v>103288</v>
+        <v>56543</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1872,49 +1885,47 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>221144</v>
+        <v>103021</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>upprörd, varnande</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>A 30779, Storön, Sm</t>
+          <t>Storön (Storön), Sm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>594796.7697831856</v>
+        <v>595038.3009655987</v>
       </c>
       <c r="R12" t="n">
-        <v>6396123.320251373</v>
+        <v>6396057.353625069</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1943,7 +1954,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1953,7 +1964,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1962,26 +1973,25 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111534111</v>
+        <v>111533937</v>
       </c>
       <c r="B13" t="n">
         <v>103288</v>
@@ -2018,14 +2028,14 @@
       <c r="K13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Dagsbo; Verkebäcksviken (Dagsbo; Verkebäcksviken), Sm</t>
+          <t>Stenhagen (Stenhagen), Sm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>594805.9667103711</v>
+        <v>594785.00034439</v>
       </c>
       <c r="R13" t="n">
-        <v>6396073.814475322</v>
+        <v>6396145.498780883</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -2057,7 +2067,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>17:33</t>
+          <t>17:23</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2067,7 +2077,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>17:33</t>
+          <t>17:23</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2094,10 +2104,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111538100</v>
+        <v>111537932</v>
       </c>
       <c r="B14" t="n">
-        <v>89425</v>
+        <v>55602</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2106,25 +2116,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5442</v>
+        <v>100070</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Sandödla</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Lacerta agilis</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -2132,12 +2142,10 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2145,10 +2153,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>594974.3931778221</v>
+        <v>595043.4620112276</v>
       </c>
       <c r="R14" t="n">
-        <v>6396223.726530103</v>
+        <v>6395974.603720695</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2190,7 +2198,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2343,10 +2351,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111537932</v>
+        <v>111538147</v>
       </c>
       <c r="B16" t="n">
-        <v>55602</v>
+        <v>103288</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2355,36 +2363,35 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100070</v>
+        <v>221144</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Sandödla</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lacerta agilis</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2392,10 +2399,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>595043.4620112276</v>
+        <v>594796.7697831856</v>
       </c>
       <c r="R16" t="n">
-        <v>6395974.603720695</v>
+        <v>6396123.320251373</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2437,7 +2444,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2465,10 +2472,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111538210</v>
+        <v>111531683</v>
       </c>
       <c r="B17" t="n">
-        <v>103288</v>
+        <v>96348</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2477,49 +2484,51 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
       <c r="J17" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>A 30779, Storön, Sm</t>
+          <t>Storön (Storön), Sm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>594797.6524209575</v>
+        <v>595121.2346721888</v>
       </c>
       <c r="R17" t="n">
-        <v>6396131.360525105</v>
+        <v>6396061.4443192</v>
       </c>
       <c r="S17" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2548,7 +2557,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2558,7 +2567,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2567,26 +2576,25 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111534212</v>
+        <v>111534111</v>
       </c>
       <c r="B18" t="n">
         <v>103288</v>
@@ -2627,10 +2635,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>594805.9416275211</v>
+        <v>594805.9667103711</v>
       </c>
       <c r="R18" t="n">
-        <v>6396074.883175282</v>
+        <v>6396073.814475322</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -2662,7 +2670,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:33</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2672,7 +2680,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:33</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2699,7 +2707,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111533775</v>
+        <v>111538210</v>
       </c>
       <c r="B19" t="n">
         <v>103288</v>
@@ -2732,30 +2740,28 @@
           <t>Sw.</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Stenhagen (Stenhagen), Sm</t>
+          <t>A 30779, Storön, Sm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>594770.3573293557</v>
+        <v>594797.6524209575</v>
       </c>
       <c r="R19" t="n">
-        <v>6396153.174710296</v>
+        <v>6396131.360525105</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2784,7 +2790,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2794,7 +2800,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2803,18 +2809,19 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
@@ -2934,7 +2941,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111534246</v>
+        <v>111534212</v>
       </c>
       <c r="B21" t="n">
         <v>103288</v>
@@ -2967,16 +2974,7 @@
           <t>Sw.</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2984,10 +2982,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>594820.5764323578</v>
+        <v>594805.9416275211</v>
       </c>
       <c r="R21" t="n">
-        <v>6396044.751846077</v>
+        <v>6396074.883175282</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -3056,10 +3054,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111531683</v>
+        <v>111533687</v>
       </c>
       <c r="B22" t="n">
-        <v>96348</v>
+        <v>103288</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3068,30 +3066,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -3106,13 +3104,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>595121.2346721888</v>
+        <v>594778.8316844747</v>
       </c>
       <c r="R22" t="n">
-        <v>6396061.4443192</v>
+        <v>6396180.10514512</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3141,7 +3139,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:08</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3151,7 +3149,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:08</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3178,10 +3176,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111533906</v>
+        <v>111538100</v>
       </c>
       <c r="B23" t="n">
-        <v>96348</v>
+        <v>89425</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3190,51 +3188,52 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>220787</v>
+        <v>5442</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Stenhagen (Stenhagen), Sm</t>
+          <t>A 30779, Storön, Sm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>594786.359476931</v>
+        <v>594974.3931778221</v>
       </c>
       <c r="R23" t="n">
-        <v>6396133.234054895</v>
+        <v>6396223.726530103</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3263,7 +3262,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3273,7 +3272,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3282,25 +3281,26 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111533687</v>
+        <v>111533775</v>
       </c>
       <c r="B24" t="n">
         <v>103288</v>
@@ -3335,7 +3335,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -3346,17 +3346,17 @@
       <c r="K24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Storön (Storön), Sm</t>
+          <t>Stenhagen (Stenhagen), Sm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>594778.8316844747</v>
+        <v>594770.3573293557</v>
       </c>
       <c r="R24" t="n">
-        <v>6396180.10514512</v>
+        <v>6396153.174710296</v>
       </c>
       <c r="S24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>17:08</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3395,7 +3395,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>17:08</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3422,10 +3422,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111557447</v>
+        <v>111557388</v>
       </c>
       <c r="B25" t="n">
-        <v>89425</v>
+        <v>96348</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3434,38 +3434,39 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5442</v>
+        <v>220787</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>200</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3473,10 +3474,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>595123.8555299225</v>
+        <v>595120.4338386087</v>
       </c>
       <c r="R25" t="n">
-        <v>6396086.634433704</v>
+        <v>6396027.207820597</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3519,11 +3520,6 @@
       <c r="AB25" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>På samma tall!</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3551,7 +3547,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111557425</v>
+        <v>111557458</v>
       </c>
       <c r="B26" t="n">
         <v>103288</v>
@@ -3603,10 +3599,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>595135.6715832634</v>
+        <v>594776.3629612414</v>
       </c>
       <c r="R26" t="n">
-        <v>6396085.308774129</v>
+        <v>6396125.514572047</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3676,10 +3672,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111557317</v>
+        <v>111557425</v>
       </c>
       <c r="B27" t="n">
-        <v>96348</v>
+        <v>103288</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3688,30 +3684,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -3728,10 +3724,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>595102.7158081263</v>
+        <v>595135.6715832634</v>
       </c>
       <c r="R27" t="n">
-        <v>6396028.929247913</v>
+        <v>6396085.308774129</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3801,10 +3797,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111557388</v>
+        <v>111557447</v>
       </c>
       <c r="B28" t="n">
-        <v>96348</v>
+        <v>89425</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3813,39 +3809,38 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>220787</v>
+        <v>5442</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3853,10 +3848,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>595120.4338386087</v>
+        <v>595123.8555299225</v>
       </c>
       <c r="R28" t="n">
-        <v>6396027.207820597</v>
+        <v>6396086.634433704</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3899,6 +3894,11 @@
       <c r="AB28" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>På samma tall!</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3926,7 +3926,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111557356</v>
+        <v>111557317</v>
       </c>
       <c r="B29" t="n">
         <v>96348</v>
@@ -3978,10 +3978,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>595109.7638816066</v>
+        <v>595102.7158081263</v>
       </c>
       <c r="R29" t="n">
-        <v>6396025.3526209</v>
+        <v>6396028.929247913</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4051,10 +4051,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111557458</v>
+        <v>111557356</v>
       </c>
       <c r="B30" t="n">
-        <v>103288</v>
+        <v>96348</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4063,30 +4063,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -4103,10 +4103,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>594776.3629612414</v>
+        <v>595109.7638816066</v>
       </c>
       <c r="R30" t="n">
-        <v>6396125.514572047</v>
+        <v>6396025.3526209</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>

--- a/artfynd/A 30779-2023.xlsx
+++ b/artfynd/A 30779-2023.xlsx
@@ -1507,10 +1507,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111534059</v>
+        <v>111531683</v>
       </c>
       <c r="B9" t="n">
-        <v>103288</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1519,30 +1519,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1553,17 +1553,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Stenhagen (Stenhagen), Sm</t>
+          <t>Storön (Storön), Sm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>594794.6408354465</v>
+        <v>595121.2346721888</v>
       </c>
       <c r="R9" t="n">
-        <v>6396122.73565076</v>
+        <v>6396061.4443192</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1629,10 +1629,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111534246</v>
+        <v>111531519</v>
       </c>
       <c r="B10" t="n">
-        <v>103288</v>
+        <v>56543</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1641,51 +1641,47 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>221144</v>
+        <v>103021</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>upprörd, varnande</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Dagsbo; Verkebäcksviken (Dagsbo; Verkebäcksviken), Sm</t>
+          <t>Storön (Storön), Sm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>594820.5764323578</v>
+        <v>595038.3009655987</v>
       </c>
       <c r="R10" t="n">
-        <v>6396044.751846077</v>
+        <v>6396057.353625069</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1751,10 +1747,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111533906</v>
+        <v>111537932</v>
       </c>
       <c r="B11" t="n">
-        <v>96348</v>
+        <v>55602</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1767,47 +1763,46 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>100070</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Sandödla</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lacerta agilis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Stenhagen (Stenhagen), Sm</t>
+          <t>A 30779, Storön, Sm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>594786.359476931</v>
+        <v>595043.4620112276</v>
       </c>
       <c r="R11" t="n">
-        <v>6396133.234054895</v>
+        <v>6395974.603720695</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1836,7 +1831,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1846,7 +1841,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1855,28 +1850,29 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111531519</v>
+        <v>111533687</v>
       </c>
       <c r="B12" t="n">
-        <v>56543</v>
+        <v>103288</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1885,47 +1881,51 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>103021</v>
+        <v>221144</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>upprörd, varnande</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Storön (Storön), Sm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>595038.3009655987</v>
+        <v>594778.8316844747</v>
       </c>
       <c r="R12" t="n">
-        <v>6396057.353625069</v>
+        <v>6396180.10514512</v>
       </c>
       <c r="S12" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:08</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1964,7 +1964,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:08</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1991,7 +1991,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111533937</v>
+        <v>111534212</v>
       </c>
       <c r="B13" t="n">
         <v>103288</v>
@@ -2028,14 +2028,14 @@
       <c r="K13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Stenhagen (Stenhagen), Sm</t>
+          <t>Dagsbo; Verkebäcksviken (Dagsbo; Verkebäcksviken), Sm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>594785.00034439</v>
+        <v>594805.9416275211</v>
       </c>
       <c r="R13" t="n">
-        <v>6396145.498780883</v>
+        <v>6396074.883175282</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -2067,7 +2067,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2104,10 +2104,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111537932</v>
+        <v>111533775</v>
       </c>
       <c r="B14" t="n">
-        <v>55602</v>
+        <v>103288</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2116,50 +2116,51 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100070</v>
+        <v>221144</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Sandödla</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lacerta agilis</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>A 30779, Storön, Sm</t>
+          <t>Stenhagen (Stenhagen), Sm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>595043.4620112276</v>
+        <v>594770.3573293557</v>
       </c>
       <c r="R14" t="n">
-        <v>6395974.603720695</v>
+        <v>6396153.174710296</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2188,7 +2189,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2198,7 +2199,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2207,29 +2208,28 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111537976</v>
+        <v>111534246</v>
       </c>
       <c r="B15" t="n">
-        <v>96348</v>
+        <v>103288</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2238,30 +2238,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2270,21 +2270,19 @@
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>A 30779, Storön, Sm</t>
+          <t>Dagsbo; Verkebäcksviken (Dagsbo; Verkebäcksviken), Sm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>595117.0271231972</v>
+        <v>594820.5764323578</v>
       </c>
       <c r="R15" t="n">
-        <v>6396058.137349035</v>
+        <v>6396044.751846077</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2313,7 +2311,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2323,7 +2321,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2332,26 +2330,25 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111538147</v>
+        <v>111534032</v>
       </c>
       <c r="B16" t="n">
         <v>103288</v>
@@ -2385,27 +2382,20 @@
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>A 30779, Storön, Sm</t>
+          <t>Stenhagen (Stenhagen), Sm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>594796.7697831856</v>
+        <v>594793.6954899583</v>
       </c>
       <c r="R16" t="n">
-        <v>6396123.320251373</v>
+        <v>6396117.367083212</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2434,7 +2424,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:27</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2444,7 +2434,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:27</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2453,29 +2443,28 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111531683</v>
+        <v>111534111</v>
       </c>
       <c r="B17" t="n">
-        <v>96348</v>
+        <v>103288</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2484,48 +2473,39 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Storön (Storön), Sm</t>
+          <t>Dagsbo; Verkebäcksviken (Dagsbo; Verkebäcksviken), Sm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>595121.2346721888</v>
+        <v>594805.9667103711</v>
       </c>
       <c r="R17" t="n">
-        <v>6396061.4443192</v>
+        <v>6396073.814475322</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -2557,7 +2537,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:33</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2567,7 +2547,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:33</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2594,10 +2574,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111534111</v>
+        <v>111538100</v>
       </c>
       <c r="B18" t="n">
-        <v>103288</v>
+        <v>89425</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2606,42 +2586,52 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>221144</v>
+        <v>5442</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Dagsbo; Verkebäcksviken (Dagsbo; Verkebäcksviken), Sm</t>
+          <t>A 30779, Storön, Sm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>594805.9667103711</v>
+        <v>594974.3931778221</v>
       </c>
       <c r="R18" t="n">
-        <v>6396073.814475322</v>
+        <v>6396223.726530103</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2670,7 +2660,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>17:33</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2680,7 +2670,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>17:33</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2689,25 +2679,26 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111538210</v>
+        <v>111538147</v>
       </c>
       <c r="B19" t="n">
         <v>103288</v>
@@ -2755,10 +2746,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>594797.6524209575</v>
+        <v>594796.7697831856</v>
       </c>
       <c r="R19" t="n">
-        <v>6396131.360525105</v>
+        <v>6396123.320251373</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2828,10 +2819,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111534032</v>
+        <v>111533906</v>
       </c>
       <c r="B20" t="n">
-        <v>103288</v>
+        <v>96348</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2840,28 +2831,37 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2869,10 +2869,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>594793.6954899583</v>
+        <v>594786.359476931</v>
       </c>
       <c r="R20" t="n">
-        <v>6396117.367083212</v>
+        <v>6396133.234054895</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>17:27</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2914,7 +2914,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>17:27</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2941,7 +2941,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111534212</v>
+        <v>111533937</v>
       </c>
       <c r="B21" t="n">
         <v>103288</v>
@@ -2978,14 +2978,14 @@
       <c r="K21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Dagsbo; Verkebäcksviken (Dagsbo; Verkebäcksviken), Sm</t>
+          <t>Stenhagen (Stenhagen), Sm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>594805.9416275211</v>
+        <v>594785.00034439</v>
       </c>
       <c r="R21" t="n">
-        <v>6396074.883175282</v>
+        <v>6396145.498780883</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:23</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:23</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3054,7 +3054,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111533687</v>
+        <v>111534059</v>
       </c>
       <c r="B22" t="n">
         <v>103288</v>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -3100,17 +3100,17 @@
       <c r="K22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Storön (Storön), Sm</t>
+          <t>Stenhagen (Stenhagen), Sm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>594778.8316844747</v>
+        <v>594794.6408354465</v>
       </c>
       <c r="R22" t="n">
-        <v>6396180.10514512</v>
+        <v>6396122.73565076</v>
       </c>
       <c r="S22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>17:08</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>17:08</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3176,10 +3176,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111538100</v>
+        <v>111537976</v>
       </c>
       <c r="B23" t="n">
-        <v>89425</v>
+        <v>96348</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3188,38 +3188,39 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5442</v>
+        <v>220787</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3227,10 +3228,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>594974.3931778221</v>
+        <v>595117.0271231972</v>
       </c>
       <c r="R23" t="n">
-        <v>6396223.726530103</v>
+        <v>6396058.137349035</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3272,7 +3273,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3300,7 +3301,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111533775</v>
+        <v>111538210</v>
       </c>
       <c r="B24" t="n">
         <v>103288</v>
@@ -3333,30 +3334,28 @@
           <t>Sw.</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Stenhagen (Stenhagen), Sm</t>
+          <t>A 30779, Storön, Sm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>594770.3573293557</v>
+        <v>594797.6524209575</v>
       </c>
       <c r="R24" t="n">
-        <v>6396153.174710296</v>
+        <v>6396131.360525105</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3385,7 +3384,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3395,7 +3394,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3404,25 +3403,26 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111557388</v>
+        <v>111557317</v>
       </c>
       <c r="B25" t="n">
         <v>96348</v>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3474,10 +3474,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>595120.4338386087</v>
+        <v>595102.7158081263</v>
       </c>
       <c r="R25" t="n">
-        <v>6396027.207820597</v>
+        <v>6396028.929247913</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3547,10 +3547,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111557458</v>
+        <v>111557447</v>
       </c>
       <c r="B26" t="n">
-        <v>103288</v>
+        <v>89425</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3559,39 +3559,38 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>221144</v>
+        <v>5442</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3599,10 +3598,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>594776.3629612414</v>
+        <v>595123.8555299225</v>
       </c>
       <c r="R26" t="n">
-        <v>6396125.514572047</v>
+        <v>6396086.634433704</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3645,6 +3644,11 @@
       <c r="AB26" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>På samma tall!</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3672,10 +3676,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111557425</v>
+        <v>111557356</v>
       </c>
       <c r="B27" t="n">
-        <v>103288</v>
+        <v>96348</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3684,30 +3688,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -3724,10 +3728,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>595135.6715832634</v>
+        <v>595109.7638816066</v>
       </c>
       <c r="R27" t="n">
-        <v>6396085.308774129</v>
+        <v>6396025.3526209</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3797,10 +3801,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111557447</v>
+        <v>111557388</v>
       </c>
       <c r="B28" t="n">
-        <v>89425</v>
+        <v>96348</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3809,38 +3813,39 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5442</v>
+        <v>220787</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>200</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3848,10 +3853,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>595123.8555299225</v>
+        <v>595120.4338386087</v>
       </c>
       <c r="R28" t="n">
-        <v>6396086.634433704</v>
+        <v>6396027.207820597</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3894,11 +3899,6 @@
       <c r="AB28" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>På samma tall!</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3926,10 +3926,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111557317</v>
+        <v>111557458</v>
       </c>
       <c r="B29" t="n">
-        <v>96348</v>
+        <v>103288</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -3978,10 +3978,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>595102.7158081263</v>
+        <v>594776.3629612414</v>
       </c>
       <c r="R29" t="n">
-        <v>6396028.929247913</v>
+        <v>6396125.514572047</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4051,10 +4051,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111557356</v>
+        <v>111557425</v>
       </c>
       <c r="B30" t="n">
-        <v>96348</v>
+        <v>103288</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4063,30 +4063,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -4103,10 +4103,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>595109.7638816066</v>
+        <v>595135.6715832634</v>
       </c>
       <c r="R30" t="n">
-        <v>6396025.3526209</v>
+        <v>6396085.308774129</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>

--- a/artfynd/A 30779-2023.xlsx
+++ b/artfynd/A 30779-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY30"/>
+  <dimension ref="A1:AY31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1507,10 +1507,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111531683</v>
+        <v>111531519</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1519,51 +1519,47 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>upprörd, varnande</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Storön (Storön), Sm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>595121.2346721888</v>
+        <v>595038.3009655987</v>
       </c>
       <c r="R9" t="n">
-        <v>6396061.4443192</v>
+        <v>6396057.353625069</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1629,10 +1625,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111531519</v>
+        <v>111538100</v>
       </c>
       <c r="B10" t="n">
-        <v>56543</v>
+        <v>89425</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1645,43 +1641,48 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>103021</v>
+        <v>5442</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>upprörd, varnande</t>
-        </is>
-      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Storön (Storön), Sm</t>
+          <t>A 30779, Storön, Sm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>595038.3009655987</v>
+        <v>594974.3931778221</v>
       </c>
       <c r="R10" t="n">
-        <v>6396057.353625069</v>
+        <v>6396223.726530103</v>
       </c>
       <c r="S10" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1710,7 +1711,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1720,7 +1721,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1729,28 +1730,29 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111537932</v>
+        <v>111538147</v>
       </c>
       <c r="B11" t="n">
-        <v>55602</v>
+        <v>103288</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1759,36 +1761,35 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100070</v>
+        <v>221144</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Sandödla</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lacerta agilis</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1796,10 +1797,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>595043.4620112276</v>
+        <v>594796.7697831856</v>
       </c>
       <c r="R11" t="n">
-        <v>6395974.603720695</v>
+        <v>6396123.320251373</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1841,7 +1842,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1869,7 +1870,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111533687</v>
+        <v>111534246</v>
       </c>
       <c r="B12" t="n">
         <v>103288</v>
@@ -1904,7 +1905,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1915,17 +1916,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Storön (Storön), Sm</t>
+          <t>Dagsbo; Verkebäcksviken (Dagsbo; Verkebäcksviken), Sm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>594778.8316844747</v>
+        <v>594820.5764323578</v>
       </c>
       <c r="R12" t="n">
-        <v>6396180.10514512</v>
+        <v>6396044.751846077</v>
       </c>
       <c r="S12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1954,7 +1955,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>17:08</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1964,7 +1965,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>17:08</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1991,7 +1992,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111534212</v>
+        <v>111533775</v>
       </c>
       <c r="B13" t="n">
         <v>103288</v>
@@ -2024,18 +2025,27 @@
           <t>Sw.</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Dagsbo; Verkebäcksviken (Dagsbo; Verkebäcksviken), Sm</t>
+          <t>Stenhagen (Stenhagen), Sm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>594805.9416275211</v>
+        <v>594770.3573293557</v>
       </c>
       <c r="R13" t="n">
-        <v>6396074.883175282</v>
+        <v>6396153.174710296</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -2067,7 +2077,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2077,7 +2087,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2104,7 +2114,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111533775</v>
+        <v>111534032</v>
       </c>
       <c r="B14" t="n">
         <v>103288</v>
@@ -2137,16 +2147,7 @@
           <t>Sw.</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2154,10 +2155,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>594770.3573293557</v>
+        <v>594793.6954899583</v>
       </c>
       <c r="R14" t="n">
-        <v>6396153.174710296</v>
+        <v>6396117.367083212</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -2189,7 +2190,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>17:27</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2199,7 +2200,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>17:27</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2226,7 +2227,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111534246</v>
+        <v>111534059</v>
       </c>
       <c r="B15" t="n">
         <v>103288</v>
@@ -2261,7 +2262,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2272,17 +2273,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Dagsbo; Verkebäcksviken (Dagsbo; Verkebäcksviken), Sm</t>
+          <t>Stenhagen (Stenhagen), Sm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>594820.5764323578</v>
+        <v>594794.6408354465</v>
       </c>
       <c r="R15" t="n">
-        <v>6396044.751846077</v>
+        <v>6396122.73565076</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2311,7 +2312,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2321,7 +2322,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2348,7 +2349,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111534032</v>
+        <v>111533687</v>
       </c>
       <c r="B16" t="n">
         <v>103288</v>
@@ -2381,21 +2382,30 @@
           <t>Sw.</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Stenhagen (Stenhagen), Sm</t>
+          <t>Storön (Storön), Sm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>594793.6954899583</v>
+        <v>594778.8316844747</v>
       </c>
       <c r="R16" t="n">
-        <v>6396117.367083212</v>
+        <v>6396180.10514512</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2424,7 +2434,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>17:27</t>
+          <t>17:08</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2434,7 +2444,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>17:27</t>
+          <t>17:08</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2461,7 +2471,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111534111</v>
+        <v>111538210</v>
       </c>
       <c r="B17" t="n">
         <v>103288</v>
@@ -2495,20 +2505,27 @@
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Dagsbo; Verkebäcksviken (Dagsbo; Verkebäcksviken), Sm</t>
+          <t>A 30779, Storön, Sm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>594805.9667103711</v>
+        <v>594797.6524209575</v>
       </c>
       <c r="R17" t="n">
-        <v>6396073.814475322</v>
+        <v>6396131.360525105</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2537,7 +2554,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>17:33</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2547,7 +2564,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>17:33</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2556,28 +2573,29 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111538100</v>
+        <v>111534212</v>
       </c>
       <c r="B18" t="n">
-        <v>89425</v>
+        <v>103288</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2586,52 +2604,42 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5442</v>
+        <v>221144</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>A 30779, Storön, Sm</t>
+          <t>Dagsbo; Verkebäcksviken (Dagsbo; Verkebäcksviken), Sm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>594974.3931778221</v>
+        <v>594805.9416275211</v>
       </c>
       <c r="R18" t="n">
-        <v>6396223.726530103</v>
+        <v>6396074.883175282</v>
       </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2660,7 +2668,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2670,7 +2678,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2679,26 +2687,25 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111538147</v>
+        <v>111534111</v>
       </c>
       <c r="B19" t="n">
         <v>103288</v>
@@ -2732,27 +2739,20 @@
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>A 30779, Storön, Sm</t>
+          <t>Dagsbo; Verkebäcksviken (Dagsbo; Verkebäcksviken), Sm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>594796.7697831856</v>
+        <v>594805.9667103711</v>
       </c>
       <c r="R19" t="n">
-        <v>6396123.320251373</v>
+        <v>6396073.814475322</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:33</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:33</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2800,26 +2800,25 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111533906</v>
+        <v>111537976</v>
       </c>
       <c r="B20" t="n">
         <v>96348</v>
@@ -2854,7 +2853,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2863,19 +2862,21 @@
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Stenhagen (Stenhagen), Sm</t>
+          <t>A 30779, Storön, Sm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>594786.359476931</v>
+        <v>595117.0271231972</v>
       </c>
       <c r="R20" t="n">
-        <v>6396133.234054895</v>
+        <v>6396058.137349035</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2904,7 +2905,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2914,7 +2915,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2923,28 +2924,29 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111533937</v>
+        <v>111537932</v>
       </c>
       <c r="B21" t="n">
-        <v>103288</v>
+        <v>55602</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2953,42 +2955,50 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>221144</v>
+        <v>100070</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Sandödla</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lacerta agilis</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Stenhagen (Stenhagen), Sm</t>
+          <t>A 30779, Storön, Sm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>594785.00034439</v>
+        <v>595043.4620112276</v>
       </c>
       <c r="R21" t="n">
-        <v>6396145.498780883</v>
+        <v>6395974.603720695</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3017,7 +3027,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3027,7 +3037,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3036,28 +3046,29 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111534059</v>
+        <v>111531683</v>
       </c>
       <c r="B22" t="n">
-        <v>103288</v>
+        <v>96348</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3066,30 +3077,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -3100,17 +3111,17 @@
       <c r="K22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Stenhagen (Stenhagen), Sm</t>
+          <t>Storön (Storön), Sm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>594794.6408354465</v>
+        <v>595121.2346721888</v>
       </c>
       <c r="R22" t="n">
-        <v>6396122.73565076</v>
+        <v>6396061.4443192</v>
       </c>
       <c r="S22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3139,7 +3150,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3149,7 +3160,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3176,7 +3187,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111537976</v>
+        <v>111533906</v>
       </c>
       <c r="B23" t="n">
         <v>96348</v>
@@ -3211,7 +3222,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3220,21 +3231,19 @@
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>A 30779, Storön, Sm</t>
+          <t>Stenhagen (Stenhagen), Sm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>595117.0271231972</v>
+        <v>594786.359476931</v>
       </c>
       <c r="R23" t="n">
-        <v>6396058.137349035</v>
+        <v>6396133.234054895</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3263,7 +3272,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3273,7 +3282,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3282,26 +3291,25 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111538210</v>
+        <v>111533937</v>
       </c>
       <c r="B24" t="n">
         <v>103288</v>
@@ -3335,27 +3343,20 @@
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>A 30779, Storön, Sm</t>
+          <t>Stenhagen (Stenhagen), Sm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>594797.6524209575</v>
+        <v>594785.00034439</v>
       </c>
       <c r="R24" t="n">
-        <v>6396131.360525105</v>
+        <v>6396145.498780883</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3384,7 +3385,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:23</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3394,7 +3395,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:23</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3403,26 +3404,25 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111557317</v>
+        <v>111557356</v>
       </c>
       <c r="B25" t="n">
         <v>96348</v>
@@ -3474,10 +3474,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>595102.7158081263</v>
+        <v>595109.7638816066</v>
       </c>
       <c r="R25" t="n">
-        <v>6396028.929247913</v>
+        <v>6396025.3526209</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3547,10 +3547,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111557447</v>
+        <v>111557425</v>
       </c>
       <c r="B26" t="n">
-        <v>89425</v>
+        <v>103288</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3559,38 +3559,39 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5442</v>
+        <v>221144</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3598,10 +3599,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>595123.8555299225</v>
+        <v>595135.6715832634</v>
       </c>
       <c r="R26" t="n">
-        <v>6396086.634433704</v>
+        <v>6396085.308774129</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3644,11 +3645,6 @@
       <c r="AB26" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>På samma tall!</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3676,7 +3672,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111557356</v>
+        <v>111557317</v>
       </c>
       <c r="B27" t="n">
         <v>96348</v>
@@ -3728,10 +3724,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>595109.7638816066</v>
+        <v>595102.7158081263</v>
       </c>
       <c r="R27" t="n">
-        <v>6396025.3526209</v>
+        <v>6396028.929247913</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -4051,10 +4047,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111557425</v>
+        <v>111557447</v>
       </c>
       <c r="B30" t="n">
-        <v>103288</v>
+        <v>89425</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4063,39 +4059,38 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>221144</v>
+        <v>5442</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -4103,10 +4098,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>595135.6715832634</v>
+        <v>595123.8555299225</v>
       </c>
       <c r="R30" t="n">
-        <v>6396085.308774129</v>
+        <v>6396086.634433704</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4151,6 +4146,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>På samma tall!</t>
+        </is>
+      </c>
       <c r="AD30" t="b">
         <v>0</v>
       </c>
@@ -4173,6 +4173,128 @@
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>111877566</v>
+      </c>
+      <c r="B31" t="n">
+        <v>52657</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>100388</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Knölspindel</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Araneus angulatus</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Clerck, 1757</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>A 30779, Storön, Sm</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>594855.4431048479</v>
+      </c>
+      <c r="R31" t="n">
+        <v>6396225.208369784</v>
+      </c>
+      <c r="S31" t="n">
+        <v>75</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Västervik</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Gladhammar</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand, Sofia  Kasselstrand , Eddy Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 30779-2023.xlsx
+++ b/artfynd/A 30779-2023.xlsx
@@ -1507,10 +1507,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111531519</v>
+        <v>111534111</v>
       </c>
       <c r="B9" t="n">
-        <v>56543</v>
+        <v>103288</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1519,47 +1519,42 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>103021</v>
+        <v>221144</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>upprörd, varnande</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Storön (Storön), Sm</t>
+          <t>Dagsbo; Verkebäcksviken (Dagsbo; Verkebäcksviken), Sm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>595038.3009655987</v>
+        <v>594805.9667103711</v>
       </c>
       <c r="R9" t="n">
-        <v>6396057.353625069</v>
+        <v>6396073.814475322</v>
       </c>
       <c r="S9" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1588,7 +1583,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:33</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1598,7 +1593,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:33</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1625,10 +1620,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111538100</v>
+        <v>111533775</v>
       </c>
       <c r="B10" t="n">
-        <v>89425</v>
+        <v>103288</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1637,52 +1632,51 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5442</v>
+        <v>221144</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>A 30779, Storön, Sm</t>
+          <t>Stenhagen (Stenhagen), Sm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>594974.3931778221</v>
+        <v>594770.3573293557</v>
       </c>
       <c r="R10" t="n">
-        <v>6396223.726530103</v>
+        <v>6396153.174710296</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1711,7 +1705,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1721,7 +1715,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1730,29 +1724,28 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111538147</v>
+        <v>111537932</v>
       </c>
       <c r="B11" t="n">
-        <v>103288</v>
+        <v>55602</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1761,35 +1754,36 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>221144</v>
+        <v>100070</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Sandödla</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lacerta agilis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1797,10 +1791,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>594796.7697831856</v>
+        <v>595043.4620112276</v>
       </c>
       <c r="R11" t="n">
-        <v>6396123.320251373</v>
+        <v>6395974.603720695</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1842,7 +1836,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1870,10 +1864,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111534246</v>
+        <v>111538100</v>
       </c>
       <c r="B12" t="n">
-        <v>103288</v>
+        <v>89425</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1882,51 +1876,52 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>221144</v>
+        <v>5442</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Dagsbo; Verkebäcksviken (Dagsbo; Verkebäcksviken), Sm</t>
+          <t>A 30779, Storön, Sm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>594820.5764323578</v>
+        <v>594974.3931778221</v>
       </c>
       <c r="R12" t="n">
-        <v>6396044.751846077</v>
+        <v>6396223.726530103</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1955,7 +1950,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1965,7 +1960,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1974,28 +1969,29 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111533775</v>
+        <v>111537976</v>
       </c>
       <c r="B13" t="n">
-        <v>103288</v>
+        <v>96348</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2004,25 +2000,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2036,19 +2032,21 @@
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Stenhagen (Stenhagen), Sm</t>
+          <t>A 30779, Storön, Sm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>594770.3573293557</v>
+        <v>595117.0271231972</v>
       </c>
       <c r="R13" t="n">
-        <v>6396153.174710296</v>
+        <v>6396058.137349035</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2077,7 +2075,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2087,7 +2085,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2096,28 +2094,29 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111534032</v>
+        <v>111531519</v>
       </c>
       <c r="B14" t="n">
-        <v>103288</v>
+        <v>56543</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2126,42 +2125,47 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>221144</v>
+        <v>103021</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>upprörd, varnande</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Stenhagen (Stenhagen), Sm</t>
+          <t>Storön (Storön), Sm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>594793.6954899583</v>
+        <v>595038.3009655987</v>
       </c>
       <c r="R14" t="n">
-        <v>6396117.367083212</v>
+        <v>6396057.353625069</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2190,7 +2194,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>17:27</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2200,7 +2204,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>17:27</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2227,7 +2231,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111534059</v>
+        <v>111533687</v>
       </c>
       <c r="B15" t="n">
         <v>103288</v>
@@ -2262,7 +2266,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2273,17 +2277,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Stenhagen (Stenhagen), Sm</t>
+          <t>Storön (Storön), Sm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>594794.6408354465</v>
+        <v>594778.8316844747</v>
       </c>
       <c r="R15" t="n">
-        <v>6396122.73565076</v>
+        <v>6396180.10514512</v>
       </c>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2312,7 +2316,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:08</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2322,7 +2326,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:08</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2349,10 +2353,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111533687</v>
+        <v>111531683</v>
       </c>
       <c r="B16" t="n">
-        <v>103288</v>
+        <v>96348</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2361,30 +2365,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>35</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2399,13 +2403,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>594778.8316844747</v>
+        <v>595121.2346721888</v>
       </c>
       <c r="R16" t="n">
-        <v>6396180.10514512</v>
+        <v>6396061.4443192</v>
       </c>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2434,7 +2438,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>17:08</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2444,7 +2448,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>17:08</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2705,7 +2709,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111534111</v>
+        <v>111538147</v>
       </c>
       <c r="B19" t="n">
         <v>103288</v>
@@ -2739,20 +2743,27 @@
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Dagsbo; Verkebäcksviken (Dagsbo; Verkebäcksviken), Sm</t>
+          <t>A 30779, Storön, Sm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>594805.9667103711</v>
+        <v>594796.7697831856</v>
       </c>
       <c r="R19" t="n">
-        <v>6396073.814475322</v>
+        <v>6396123.320251373</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2781,7 +2792,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>17:33</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2791,7 +2802,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>17:33</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2800,28 +2811,29 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111537976</v>
+        <v>111534246</v>
       </c>
       <c r="B20" t="n">
-        <v>96348</v>
+        <v>103288</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2830,30 +2842,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2862,21 +2874,19 @@
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>A 30779, Storön, Sm</t>
+          <t>Dagsbo; Verkebäcksviken (Dagsbo; Verkebäcksviken), Sm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>595117.0271231972</v>
+        <v>594820.5764323578</v>
       </c>
       <c r="R20" t="n">
-        <v>6396058.137349035</v>
+        <v>6396044.751846077</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2905,7 +2915,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2915,7 +2925,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2924,29 +2934,28 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111537932</v>
+        <v>111533937</v>
       </c>
       <c r="B21" t="n">
-        <v>55602</v>
+        <v>103288</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2955,50 +2964,42 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100070</v>
+        <v>221144</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Sandödla</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lacerta agilis</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>A 30779, Storön, Sm</t>
+          <t>Stenhagen (Stenhagen), Sm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>595043.4620112276</v>
+        <v>594785.00034439</v>
       </c>
       <c r="R21" t="n">
-        <v>6395974.603720695</v>
+        <v>6396145.498780883</v>
       </c>
       <c r="S21" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3027,7 +3028,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:23</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3037,7 +3038,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:23</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3046,26 +3047,25 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111531683</v>
+        <v>111533906</v>
       </c>
       <c r="B22" t="n">
         <v>96348</v>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -3111,14 +3111,14 @@
       <c r="K22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Storön (Storön), Sm</t>
+          <t>Stenhagen (Stenhagen), Sm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>595121.2346721888</v>
+        <v>594786.359476931</v>
       </c>
       <c r="R22" t="n">
-        <v>6396061.4443192</v>
+        <v>6396133.234054895</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -3187,10 +3187,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111533906</v>
+        <v>111534032</v>
       </c>
       <c r="B23" t="n">
-        <v>96348</v>
+        <v>103288</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3199,37 +3199,28 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3237,10 +3228,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>594786.359476931</v>
+        <v>594793.6954899583</v>
       </c>
       <c r="R23" t="n">
-        <v>6396133.234054895</v>
+        <v>6396117.367083212</v>
       </c>
       <c r="S23" t="n">
         <v>1</v>
@@ -3272,7 +3263,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:27</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3282,7 +3273,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:27</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3309,7 +3300,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111533937</v>
+        <v>111534059</v>
       </c>
       <c r="B24" t="n">
         <v>103288</v>
@@ -3342,7 +3333,16 @@
           <t>Sw.</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3350,13 +3350,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>594785.00034439</v>
+        <v>594794.6408354465</v>
       </c>
       <c r="R24" t="n">
-        <v>6396145.498780883</v>
+        <v>6396122.73565076</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3395,7 +3395,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3547,7 +3547,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111557425</v>
+        <v>111557458</v>
       </c>
       <c r="B26" t="n">
         <v>103288</v>
@@ -3599,10 +3599,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>595135.6715832634</v>
+        <v>594776.3629612414</v>
       </c>
       <c r="R26" t="n">
-        <v>6396085.308774129</v>
+        <v>6396125.514572047</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3672,7 +3672,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111557317</v>
+        <v>111557388</v>
       </c>
       <c r="B27" t="n">
         <v>96348</v>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>200</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -3724,10 +3724,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>595102.7158081263</v>
+        <v>595120.4338386087</v>
       </c>
       <c r="R27" t="n">
-        <v>6396028.929247913</v>
+        <v>6396027.207820597</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111557388</v>
+        <v>111557317</v>
       </c>
       <c r="B28" t="n">
         <v>96348</v>
@@ -3832,7 +3832,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -3849,10 +3849,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>595120.4338386087</v>
+        <v>595102.7158081263</v>
       </c>
       <c r="R28" t="n">
-        <v>6396027.207820597</v>
+        <v>6396028.929247913</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3922,10 +3922,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111557458</v>
+        <v>111557447</v>
       </c>
       <c r="B29" t="n">
-        <v>103288</v>
+        <v>89425</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3934,39 +3934,38 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>221144</v>
+        <v>5442</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -3974,10 +3973,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>594776.3629612414</v>
+        <v>595123.8555299225</v>
       </c>
       <c r="R29" t="n">
-        <v>6396125.514572047</v>
+        <v>6396086.634433704</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4020,6 +4019,11 @@
       <c r="AB29" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>På samma tall!</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4047,10 +4051,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111557447</v>
+        <v>111557425</v>
       </c>
       <c r="B30" t="n">
-        <v>89425</v>
+        <v>103288</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4059,38 +4063,39 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5442</v>
+        <v>221144</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -4098,10 +4103,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>595123.8555299225</v>
+        <v>595135.6715832634</v>
       </c>
       <c r="R30" t="n">
-        <v>6396086.634433704</v>
+        <v>6396085.308774129</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4144,11 +4149,6 @@
       <c r="AB30" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>På samma tall!</t>
         </is>
       </c>
       <c r="AD30" t="b">

--- a/artfynd/A 30779-2023.xlsx
+++ b/artfynd/A 30779-2023.xlsx
@@ -1507,7 +1507,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111534111</v>
+        <v>111533687</v>
       </c>
       <c r="B9" t="n">
         <v>103288</v>
@@ -1540,21 +1540,30 @@
           <t>Sw.</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Dagsbo; Verkebäcksviken (Dagsbo; Verkebäcksviken), Sm</t>
+          <t>Storön (Storön), Sm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>594805.9667103711</v>
+        <v>594778.8316844747</v>
       </c>
       <c r="R9" t="n">
-        <v>6396073.814475322</v>
+        <v>6396180.10514512</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1583,7 +1592,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>17:33</t>
+          <t>17:08</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1593,7 +1602,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>17:33</t>
+          <t>17:08</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1620,10 +1629,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111533775</v>
+        <v>111537932</v>
       </c>
       <c r="B10" t="n">
-        <v>103288</v>
+        <v>55602</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1632,51 +1641,50 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>221144</v>
+        <v>100070</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Sandödla</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lacerta agilis</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Stenhagen (Stenhagen), Sm</t>
+          <t>A 30779, Storön, Sm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>594770.3573293557</v>
+        <v>595043.4620112276</v>
       </c>
       <c r="R10" t="n">
-        <v>6396153.174710296</v>
+        <v>6395974.603720695</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1705,7 +1713,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1715,7 +1723,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1724,28 +1732,29 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111537932</v>
+        <v>111538100</v>
       </c>
       <c r="B11" t="n">
-        <v>55602</v>
+        <v>89425</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1754,25 +1763,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100070</v>
+        <v>5442</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Sandödla</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lacerta agilis</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1780,10 +1789,12 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1791,10 +1802,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>595043.4620112276</v>
+        <v>594974.3931778221</v>
       </c>
       <c r="R11" t="n">
-        <v>6395974.603720695</v>
+        <v>6396223.726530103</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1836,7 +1847,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1864,10 +1875,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111538100</v>
+        <v>111538210</v>
       </c>
       <c r="B12" t="n">
-        <v>89425</v>
+        <v>103288</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1876,38 +1887,35 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5442</v>
+        <v>221144</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1915,10 +1923,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>594974.3931778221</v>
+        <v>594797.6524209575</v>
       </c>
       <c r="R12" t="n">
-        <v>6396223.726530103</v>
+        <v>6396131.360525105</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1988,10 +1996,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111537976</v>
+        <v>111538147</v>
       </c>
       <c r="B13" t="n">
-        <v>96348</v>
+        <v>103288</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2000,32 +2008,28 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
@@ -2040,10 +2044,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>595117.0271231972</v>
+        <v>594796.7697831856</v>
       </c>
       <c r="R13" t="n">
-        <v>6396058.137349035</v>
+        <v>6396123.320251373</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2085,7 +2089,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2113,10 +2117,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111531519</v>
+        <v>111534111</v>
       </c>
       <c r="B14" t="n">
-        <v>56543</v>
+        <v>103288</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2125,47 +2129,42 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>103021</v>
+        <v>221144</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>upprörd, varnande</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Storön (Storön), Sm</t>
+          <t>Dagsbo; Verkebäcksviken (Dagsbo; Verkebäcksviken), Sm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>595038.3009655987</v>
+        <v>594805.9667103711</v>
       </c>
       <c r="R14" t="n">
-        <v>6396057.353625069</v>
+        <v>6396073.814475322</v>
       </c>
       <c r="S14" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2194,7 +2193,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:33</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2204,7 +2203,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:33</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2231,7 +2230,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111533687</v>
+        <v>111534246</v>
       </c>
       <c r="B15" t="n">
         <v>103288</v>
@@ -2266,7 +2265,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2277,17 +2276,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Storön (Storön), Sm</t>
+          <t>Dagsbo; Verkebäcksviken (Dagsbo; Verkebäcksviken), Sm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>594778.8316844747</v>
+        <v>594820.5764323578</v>
       </c>
       <c r="R15" t="n">
-        <v>6396180.10514512</v>
+        <v>6396044.751846077</v>
       </c>
       <c r="S15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2316,7 +2315,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>17:08</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2326,7 +2325,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>17:08</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2353,10 +2352,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111531683</v>
+        <v>111531519</v>
       </c>
       <c r="B16" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2365,51 +2364,47 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>upprörd, varnande</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Storön (Storön), Sm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>595121.2346721888</v>
+        <v>595038.3009655987</v>
       </c>
       <c r="R16" t="n">
-        <v>6396061.4443192</v>
+        <v>6396057.353625069</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2475,7 +2470,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111538210</v>
+        <v>111534212</v>
       </c>
       <c r="B17" t="n">
         <v>103288</v>
@@ -2509,27 +2504,20 @@
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>A 30779, Storön, Sm</t>
+          <t>Dagsbo; Verkebäcksviken (Dagsbo; Verkebäcksviken), Sm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>594797.6524209575</v>
+        <v>594805.9416275211</v>
       </c>
       <c r="R17" t="n">
-        <v>6396131.360525105</v>
+        <v>6396074.883175282</v>
       </c>
       <c r="S17" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2558,7 +2546,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2568,7 +2556,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2577,29 +2565,28 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111534212</v>
+        <v>111537976</v>
       </c>
       <c r="B18" t="n">
-        <v>103288</v>
+        <v>96348</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2608,42 +2595,53 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Dagsbo; Verkebäcksviken (Dagsbo; Verkebäcksviken), Sm</t>
+          <t>A 30779, Storön, Sm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>594805.9416275211</v>
+        <v>595117.0271231972</v>
       </c>
       <c r="R18" t="n">
-        <v>6396074.883175282</v>
+        <v>6396058.137349035</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2672,7 +2670,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2682,7 +2680,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2691,25 +2689,26 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111538147</v>
+        <v>111534059</v>
       </c>
       <c r="B19" t="n">
         <v>103288</v>
@@ -2742,28 +2741,30 @@
           <t>Sw.</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>A 30779, Storön, Sm</t>
+          <t>Stenhagen (Stenhagen), Sm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>594796.7697831856</v>
+        <v>594794.6408354465</v>
       </c>
       <c r="R19" t="n">
-        <v>6396123.320251373</v>
+        <v>6396122.73565076</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2792,7 +2793,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2802,7 +2803,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2811,29 +2812,28 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111534246</v>
+        <v>111533906</v>
       </c>
       <c r="B20" t="n">
-        <v>103288</v>
+        <v>96348</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2842,30 +2842,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2876,14 +2876,14 @@
       <c r="K20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Dagsbo; Verkebäcksviken (Dagsbo; Verkebäcksviken), Sm</t>
+          <t>Stenhagen (Stenhagen), Sm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>594820.5764323578</v>
+        <v>594786.359476931</v>
       </c>
       <c r="R20" t="n">
-        <v>6396044.751846077</v>
+        <v>6396133.234054895</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -2952,7 +2952,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111533937</v>
+        <v>111534032</v>
       </c>
       <c r="B21" t="n">
         <v>103288</v>
@@ -2993,10 +2993,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>594785.00034439</v>
+        <v>594793.6954899583</v>
       </c>
       <c r="R21" t="n">
-        <v>6396145.498780883</v>
+        <v>6396117.367083212</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>17:27</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>17:27</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3065,10 +3065,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111533906</v>
+        <v>111533937</v>
       </c>
       <c r="B22" t="n">
-        <v>96348</v>
+        <v>103288</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3077,37 +3077,28 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3115,10 +3106,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>594786.359476931</v>
+        <v>594785.00034439</v>
       </c>
       <c r="R22" t="n">
-        <v>6396133.234054895</v>
+        <v>6396145.498780883</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -3150,7 +3141,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:23</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3160,7 +3151,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:23</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3187,10 +3178,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111534032</v>
+        <v>111531683</v>
       </c>
       <c r="B23" t="n">
-        <v>103288</v>
+        <v>96348</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3199,39 +3190,48 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Stenhagen (Stenhagen), Sm</t>
+          <t>Storön (Storön), Sm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>594793.6954899583</v>
+        <v>595121.2346721888</v>
       </c>
       <c r="R23" t="n">
-        <v>6396117.367083212</v>
+        <v>6396061.4443192</v>
       </c>
       <c r="S23" t="n">
         <v>1</v>
@@ -3263,7 +3263,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>17:27</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>17:27</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3300,7 +3300,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111534059</v>
+        <v>111533775</v>
       </c>
       <c r="B24" t="n">
         <v>103288</v>
@@ -3335,7 +3335,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -3350,13 +3350,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>594794.6408354465</v>
+        <v>594770.3573293557</v>
       </c>
       <c r="R24" t="n">
-        <v>6396122.73565076</v>
+        <v>6396153.174710296</v>
       </c>
       <c r="S24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3395,7 +3395,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3422,10 +3422,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111557356</v>
+        <v>111557458</v>
       </c>
       <c r="B25" t="n">
-        <v>96348</v>
+        <v>103288</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3434,30 +3434,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3474,10 +3474,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>595109.7638816066</v>
+        <v>594776.3629612414</v>
       </c>
       <c r="R25" t="n">
-        <v>6396025.3526209</v>
+        <v>6396125.514572047</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111557458</v>
+        <v>111557425</v>
       </c>
       <c r="B26" t="n">
         <v>103288</v>
@@ -3599,10 +3599,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>594776.3629612414</v>
+        <v>595135.6715832634</v>
       </c>
       <c r="R26" t="n">
-        <v>6396125.514572047</v>
+        <v>6396085.308774129</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3672,7 +3672,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111557388</v>
+        <v>111557317</v>
       </c>
       <c r="B27" t="n">
         <v>96348</v>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -3724,10 +3724,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>595120.4338386087</v>
+        <v>595102.7158081263</v>
       </c>
       <c r="R27" t="n">
-        <v>6396027.207820597</v>
+        <v>6396028.929247913</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111557317</v>
+        <v>111557388</v>
       </c>
       <c r="B28" t="n">
         <v>96348</v>
@@ -3832,7 +3832,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>200</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -3849,10 +3849,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>595102.7158081263</v>
+        <v>595120.4338386087</v>
       </c>
       <c r="R28" t="n">
-        <v>6396028.929247913</v>
+        <v>6396027.207820597</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3922,10 +3922,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111557447</v>
+        <v>111557356</v>
       </c>
       <c r="B29" t="n">
-        <v>89425</v>
+        <v>96348</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3934,38 +3934,39 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5442</v>
+        <v>220787</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -3973,10 +3974,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>595123.8555299225</v>
+        <v>595109.7638816066</v>
       </c>
       <c r="R29" t="n">
-        <v>6396086.634433704</v>
+        <v>6396025.3526209</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4019,11 +4020,6 @@
       <c r="AB29" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>På samma tall!</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4051,10 +4047,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111557425</v>
+        <v>111557447</v>
       </c>
       <c r="B30" t="n">
-        <v>103288</v>
+        <v>89425</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4063,39 +4059,38 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>221144</v>
+        <v>5442</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -4103,10 +4098,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>595135.6715832634</v>
+        <v>595123.8555299225</v>
       </c>
       <c r="R30" t="n">
-        <v>6396085.308774129</v>
+        <v>6396086.634433704</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4149,6 +4144,11 @@
       <c r="AB30" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>På samma tall!</t>
         </is>
       </c>
       <c r="AD30" t="b">

--- a/artfynd/A 30779-2023.xlsx
+++ b/artfynd/A 30779-2023.xlsx
@@ -1629,10 +1629,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111537932</v>
+        <v>111534032</v>
       </c>
       <c r="B10" t="n">
-        <v>55602</v>
+        <v>103288</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1641,50 +1641,42 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100070</v>
+        <v>221144</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sandödla</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lacerta agilis</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>A 30779, Storön, Sm</t>
+          <t>Stenhagen (Stenhagen), Sm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>595043.4620112276</v>
+        <v>594793.6954899583</v>
       </c>
       <c r="R10" t="n">
-        <v>6395974.603720695</v>
+        <v>6396117.367083212</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1713,7 +1705,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:27</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1723,7 +1715,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:27</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1732,29 +1724,28 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111538100</v>
+        <v>111531683</v>
       </c>
       <c r="B11" t="n">
-        <v>89425</v>
+        <v>96348</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1763,52 +1754,51 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5442</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>35</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>A 30779, Storön, Sm</t>
+          <t>Storön (Storön), Sm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>594974.3931778221</v>
+        <v>595121.2346721888</v>
       </c>
       <c r="R11" t="n">
-        <v>6396223.726530103</v>
+        <v>6396061.4443192</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1837,7 +1827,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1847,7 +1837,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1856,26 +1846,25 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111538210</v>
+        <v>111534111</v>
       </c>
       <c r="B12" t="n">
         <v>103288</v>
@@ -1909,27 +1898,20 @@
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>A 30779, Storön, Sm</t>
+          <t>Dagsbo; Verkebäcksviken (Dagsbo; Verkebäcksviken), Sm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>594797.6524209575</v>
+        <v>594805.9667103711</v>
       </c>
       <c r="R12" t="n">
-        <v>6396131.360525105</v>
+        <v>6396073.814475322</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1958,7 +1940,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:33</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1968,7 +1950,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:33</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1977,29 +1959,28 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111538147</v>
+        <v>111537976</v>
       </c>
       <c r="B13" t="n">
-        <v>103288</v>
+        <v>96348</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2008,28 +1989,32 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
@@ -2044,10 +2029,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>594796.7697831856</v>
+        <v>595117.0271231972</v>
       </c>
       <c r="R13" t="n">
-        <v>6396123.320251373</v>
+        <v>6396058.137349035</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2089,7 +2074,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2117,10 +2102,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111534111</v>
+        <v>111531519</v>
       </c>
       <c r="B14" t="n">
-        <v>103288</v>
+        <v>56543</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2129,42 +2114,47 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>221144</v>
+        <v>103021</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>upprörd, varnande</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Dagsbo; Verkebäcksviken (Dagsbo; Verkebäcksviken), Sm</t>
+          <t>Storön (Storön), Sm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>594805.9667103711</v>
+        <v>595038.3009655987</v>
       </c>
       <c r="R14" t="n">
-        <v>6396073.814475322</v>
+        <v>6396057.353625069</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2193,7 +2183,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>17:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2203,7 +2193,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>17:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2352,10 +2342,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111531519</v>
+        <v>111533775</v>
       </c>
       <c r="B16" t="n">
-        <v>56543</v>
+        <v>103288</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2364,47 +2354,51 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>103021</v>
+        <v>221144</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>upprörd, varnande</t>
-        </is>
-      </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Storön (Storön), Sm</t>
+          <t>Stenhagen (Stenhagen), Sm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>595038.3009655987</v>
+        <v>594770.3573293557</v>
       </c>
       <c r="R16" t="n">
-        <v>6396057.353625069</v>
+        <v>6396153.174710296</v>
       </c>
       <c r="S16" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2433,7 +2427,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2443,7 +2437,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2470,7 +2464,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111534212</v>
+        <v>111533937</v>
       </c>
       <c r="B17" t="n">
         <v>103288</v>
@@ -2507,14 +2501,14 @@
       <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Dagsbo; Verkebäcksviken (Dagsbo; Verkebäcksviken), Sm</t>
+          <t>Stenhagen (Stenhagen), Sm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>594805.9416275211</v>
+        <v>594785.00034439</v>
       </c>
       <c r="R17" t="n">
-        <v>6396074.883175282</v>
+        <v>6396145.498780883</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -2546,7 +2540,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:23</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2556,7 +2550,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:23</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2583,10 +2577,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111537976</v>
+        <v>111537932</v>
       </c>
       <c r="B18" t="n">
-        <v>96348</v>
+        <v>55602</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2599,35 +2593,32 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220787</v>
+        <v>100070</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Sandödla</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lacerta agilis</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2635,10 +2626,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>595117.0271231972</v>
+        <v>595043.4620112276</v>
       </c>
       <c r="R18" t="n">
-        <v>6396058.137349035</v>
+        <v>6395974.603720695</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2708,7 +2699,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111534059</v>
+        <v>111538210</v>
       </c>
       <c r="B19" t="n">
         <v>103288</v>
@@ -2741,30 +2732,28 @@
           <t>Sw.</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Stenhagen (Stenhagen), Sm</t>
+          <t>A 30779, Storön, Sm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>594794.6408354465</v>
+        <v>594797.6524209575</v>
       </c>
       <c r="R19" t="n">
-        <v>6396122.73565076</v>
+        <v>6396131.360525105</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2793,7 +2782,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2803,7 +2792,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2812,28 +2801,29 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111533906</v>
+        <v>111538147</v>
       </c>
       <c r="B20" t="n">
-        <v>96348</v>
+        <v>103288</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2842,51 +2832,49 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Stenhagen (Stenhagen), Sm</t>
+          <t>A 30779, Storön, Sm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>594786.359476931</v>
+        <v>594796.7697831856</v>
       </c>
       <c r="R20" t="n">
-        <v>6396133.234054895</v>
+        <v>6396123.320251373</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2915,7 +2903,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2925,7 +2913,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2934,25 +2922,26 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111534032</v>
+        <v>111534212</v>
       </c>
       <c r="B21" t="n">
         <v>103288</v>
@@ -2989,14 +2978,14 @@
       <c r="K21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Stenhagen (Stenhagen), Sm</t>
+          <t>Dagsbo; Verkebäcksviken (Dagsbo; Verkebäcksviken), Sm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>594793.6954899583</v>
+        <v>594805.9416275211</v>
       </c>
       <c r="R21" t="n">
-        <v>6396117.367083212</v>
+        <v>6396074.883175282</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -3028,7 +3017,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>17:27</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3038,7 +3027,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>17:27</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3065,7 +3054,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111533937</v>
+        <v>111534059</v>
       </c>
       <c r="B22" t="n">
         <v>103288</v>
@@ -3098,7 +3087,16 @@
           <t>Sw.</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3106,13 +3104,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>594785.00034439</v>
+        <v>594794.6408354465</v>
       </c>
       <c r="R22" t="n">
-        <v>6396145.498780883</v>
+        <v>6396122.73565076</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3141,7 +3139,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3151,7 +3149,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3178,7 +3176,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111531683</v>
+        <v>111533906</v>
       </c>
       <c r="B23" t="n">
         <v>96348</v>
@@ -3213,7 +3211,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3224,14 +3222,14 @@
       <c r="K23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Storön (Storön), Sm</t>
+          <t>Stenhagen (Stenhagen), Sm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>595121.2346721888</v>
+        <v>594786.359476931</v>
       </c>
       <c r="R23" t="n">
-        <v>6396061.4443192</v>
+        <v>6396133.234054895</v>
       </c>
       <c r="S23" t="n">
         <v>1</v>
@@ -3300,10 +3298,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111533775</v>
+        <v>111538100</v>
       </c>
       <c r="B24" t="n">
-        <v>103288</v>
+        <v>89425</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3312,51 +3310,52 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>221144</v>
+        <v>5442</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Stenhagen (Stenhagen), Sm</t>
+          <t>A 30779, Storön, Sm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>594770.3573293557</v>
+        <v>594974.3931778221</v>
       </c>
       <c r="R24" t="n">
-        <v>6396153.174710296</v>
+        <v>6396223.726530103</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3385,7 +3384,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3395,7 +3394,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3404,28 +3403,29 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111557458</v>
+        <v>111557317</v>
       </c>
       <c r="B25" t="n">
-        <v>103288</v>
+        <v>96348</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3434,30 +3434,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3474,10 +3474,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>594776.3629612414</v>
+        <v>595102.7158081263</v>
       </c>
       <c r="R25" t="n">
-        <v>6396125.514572047</v>
+        <v>6396028.929247913</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3672,10 +3672,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111557317</v>
+        <v>111557458</v>
       </c>
       <c r="B27" t="n">
-        <v>96348</v>
+        <v>103288</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3684,30 +3684,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -3724,10 +3724,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>595102.7158081263</v>
+        <v>594776.3629612414</v>
       </c>
       <c r="R27" t="n">
-        <v>6396028.929247913</v>
+        <v>6396125.514572047</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3797,10 +3797,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111557388</v>
+        <v>111557447</v>
       </c>
       <c r="B28" t="n">
-        <v>96348</v>
+        <v>89425</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3809,39 +3809,38 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>220787</v>
+        <v>5442</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3849,10 +3848,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>595120.4338386087</v>
+        <v>595123.8555299225</v>
       </c>
       <c r="R28" t="n">
-        <v>6396027.207820597</v>
+        <v>6396086.634433704</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3895,6 +3894,11 @@
       <c r="AB28" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>På samma tall!</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3922,7 +3926,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111557356</v>
+        <v>111557388</v>
       </c>
       <c r="B29" t="n">
         <v>96348</v>
@@ -3957,7 +3961,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>200</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -3974,10 +3978,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>595109.7638816066</v>
+        <v>595120.4338386087</v>
       </c>
       <c r="R29" t="n">
-        <v>6396025.3526209</v>
+        <v>6396027.207820597</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4047,10 +4051,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111557447</v>
+        <v>111557356</v>
       </c>
       <c r="B30" t="n">
-        <v>89425</v>
+        <v>96348</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4059,38 +4063,39 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5442</v>
+        <v>220787</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -4098,10 +4103,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>595123.8555299225</v>
+        <v>595109.7638816066</v>
       </c>
       <c r="R30" t="n">
-        <v>6396086.634433704</v>
+        <v>6396025.3526209</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4144,11 +4149,6 @@
       <c r="AB30" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>På samma tall!</t>
         </is>
       </c>
       <c r="AD30" t="b">

--- a/artfynd/A 30779-2023.xlsx
+++ b/artfynd/A 30779-2023.xlsx
@@ -2102,10 +2102,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111531519</v>
+        <v>111534246</v>
       </c>
       <c r="B14" t="n">
-        <v>56543</v>
+        <v>103288</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2114,47 +2114,51 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>103021</v>
+        <v>221144</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>upprörd, varnande</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Storön (Storön), Sm</t>
+          <t>Dagsbo; Verkebäcksviken (Dagsbo; Verkebäcksviken), Sm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>595038.3009655987</v>
+        <v>594820.5764323578</v>
       </c>
       <c r="R14" t="n">
-        <v>6396057.353625069</v>
+        <v>6396044.751846077</v>
       </c>
       <c r="S14" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2220,10 +2224,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111534246</v>
+        <v>111531519</v>
       </c>
       <c r="B15" t="n">
-        <v>103288</v>
+        <v>56543</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2232,51 +2236,47 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>221144</v>
+        <v>103021</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>upprörd, varnande</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Dagsbo; Verkebäcksviken (Dagsbo; Verkebäcksviken), Sm</t>
+          <t>Storön (Storön), Sm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>594820.5764323578</v>
+        <v>595038.3009655987</v>
       </c>
       <c r="R15" t="n">
-        <v>6396044.751846077</v>
+        <v>6396057.353625069</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>

--- a/artfynd/A 30779-2023.xlsx
+++ b/artfynd/A 30779-2023.xlsx
@@ -1507,7 +1507,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111533687</v>
+        <v>111534059</v>
       </c>
       <c r="B9" t="n">
         <v>103288</v>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1553,17 +1553,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Storön (Storön), Sm</t>
+          <t>Stenhagen (Stenhagen), Sm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>594778.8316844747</v>
+        <v>594794.6408354465</v>
       </c>
       <c r="R9" t="n">
-        <v>6396180.10514512</v>
+        <v>6396122.73565076</v>
       </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>17:08</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>17:08</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1629,7 +1629,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111534032</v>
+        <v>111533775</v>
       </c>
       <c r="B10" t="n">
         <v>103288</v>
@@ -1662,7 +1662,16 @@
           <t>Sw.</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1670,10 +1679,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>594793.6954899583</v>
+        <v>594770.3573293557</v>
       </c>
       <c r="R10" t="n">
-        <v>6396117.367083212</v>
+        <v>6396153.174710296</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1705,7 +1714,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>17:27</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1715,7 +1724,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>17:27</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1742,10 +1751,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111531683</v>
+        <v>111533687</v>
       </c>
       <c r="B11" t="n">
-        <v>96348</v>
+        <v>103288</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1754,30 +1763,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1792,13 +1801,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>595121.2346721888</v>
+        <v>594778.8316844747</v>
       </c>
       <c r="R11" t="n">
-        <v>6396061.4443192</v>
+        <v>6396180.10514512</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1827,7 +1836,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:08</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1837,7 +1846,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:08</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1864,10 +1873,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111534111</v>
+        <v>111531519</v>
       </c>
       <c r="B12" t="n">
-        <v>103288</v>
+        <v>56543</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1876,42 +1885,47 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>221144</v>
+        <v>103021</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>upprörd, varnande</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Dagsbo; Verkebäcksviken (Dagsbo; Verkebäcksviken), Sm</t>
+          <t>Storön (Storön), Sm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>594805.9667103711</v>
+        <v>595038.3009655987</v>
       </c>
       <c r="R12" t="n">
-        <v>6396073.814475322</v>
+        <v>6396057.353625069</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1940,7 +1954,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>17:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1950,7 +1964,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>17:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1977,10 +1991,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111537976</v>
+        <v>111534032</v>
       </c>
       <c r="B13" t="n">
-        <v>96348</v>
+        <v>103288</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1989,53 +2003,42 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>A 30779, Storön, Sm</t>
+          <t>Stenhagen (Stenhagen), Sm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>595117.0271231972</v>
+        <v>594793.6954899583</v>
       </c>
       <c r="R13" t="n">
-        <v>6396058.137349035</v>
+        <v>6396117.367083212</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2064,7 +2067,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:27</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2074,7 +2077,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:27</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2083,29 +2086,28 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111534246</v>
+        <v>111531683</v>
       </c>
       <c r="B14" t="n">
-        <v>103288</v>
+        <v>96348</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2114,30 +2116,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>35</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2148,14 +2150,14 @@
       <c r="K14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Dagsbo; Verkebäcksviken (Dagsbo; Verkebäcksviken), Sm</t>
+          <t>Storön (Storön), Sm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>594820.5764323578</v>
+        <v>595121.2346721888</v>
       </c>
       <c r="R14" t="n">
-        <v>6396044.751846077</v>
+        <v>6396061.4443192</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -2224,10 +2226,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111531519</v>
+        <v>111533937</v>
       </c>
       <c r="B15" t="n">
-        <v>56543</v>
+        <v>103288</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2236,47 +2238,42 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>103021</v>
+        <v>221144</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>upprörd, varnande</t>
-        </is>
-      </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Storön (Storön), Sm</t>
+          <t>Stenhagen (Stenhagen), Sm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>595038.3009655987</v>
+        <v>594785.00034439</v>
       </c>
       <c r="R15" t="n">
-        <v>6396057.353625069</v>
+        <v>6396145.498780883</v>
       </c>
       <c r="S15" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2305,7 +2302,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:23</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2315,7 +2312,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:23</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2342,10 +2339,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111533775</v>
+        <v>111533906</v>
       </c>
       <c r="B16" t="n">
-        <v>103288</v>
+        <v>96348</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2354,30 +2351,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2392,10 +2389,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>594770.3573293557</v>
+        <v>594786.359476931</v>
       </c>
       <c r="R16" t="n">
-        <v>6396153.174710296</v>
+        <v>6396133.234054895</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -2427,7 +2424,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2437,7 +2434,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2464,7 +2461,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111533937</v>
+        <v>111534111</v>
       </c>
       <c r="B17" t="n">
         <v>103288</v>
@@ -2501,14 +2498,14 @@
       <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Stenhagen (Stenhagen), Sm</t>
+          <t>Dagsbo; Verkebäcksviken (Dagsbo; Verkebäcksviken), Sm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>594785.00034439</v>
+        <v>594805.9667103711</v>
       </c>
       <c r="R17" t="n">
-        <v>6396145.498780883</v>
+        <v>6396073.814475322</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -2540,7 +2537,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>17:33</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2550,7 +2547,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>17:33</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2577,10 +2574,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111537932</v>
+        <v>111537976</v>
       </c>
       <c r="B18" t="n">
-        <v>55602</v>
+        <v>96348</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2593,32 +2590,35 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100070</v>
+        <v>220787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Sandödla</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lacerta agilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>595043.4620112276</v>
+        <v>595117.0271231972</v>
       </c>
       <c r="R18" t="n">
-        <v>6395974.603720695</v>
+        <v>6396058.137349035</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2820,7 +2820,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111538147</v>
+        <v>111534212</v>
       </c>
       <c r="B20" t="n">
         <v>103288</v>
@@ -2854,27 +2854,20 @@
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>A 30779, Storön, Sm</t>
+          <t>Dagsbo; Verkebäcksviken (Dagsbo; Verkebäcksviken), Sm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>594796.7697831856</v>
+        <v>594805.9416275211</v>
       </c>
       <c r="R20" t="n">
-        <v>6396123.320251373</v>
+        <v>6396074.883175282</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2903,7 +2896,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2913,7 +2906,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2922,26 +2915,25 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111534212</v>
+        <v>111534246</v>
       </c>
       <c r="B21" t="n">
         <v>103288</v>
@@ -2974,7 +2966,16 @@
           <t>Sw.</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2982,10 +2983,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>594805.9416275211</v>
+        <v>594820.5764323578</v>
       </c>
       <c r="R21" t="n">
-        <v>6396074.883175282</v>
+        <v>6396044.751846077</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -3054,10 +3055,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111534059</v>
+        <v>111537932</v>
       </c>
       <c r="B22" t="n">
-        <v>103288</v>
+        <v>55602</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3066,51 +3067,50 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>221144</v>
+        <v>100070</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Sandödla</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lacerta agilis</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Stenhagen (Stenhagen), Sm</t>
+          <t>A 30779, Storön, Sm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>594794.6408354465</v>
+        <v>595043.4620112276</v>
       </c>
       <c r="R22" t="n">
-        <v>6396122.73565076</v>
+        <v>6395974.603720695</v>
       </c>
       <c r="S22" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3158,28 +3158,29 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111533906</v>
+        <v>111538100</v>
       </c>
       <c r="B23" t="n">
-        <v>96348</v>
+        <v>89425</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3188,51 +3189,52 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>220787</v>
+        <v>5442</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Stenhagen (Stenhagen), Sm</t>
+          <t>A 30779, Storön, Sm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>594786.359476931</v>
+        <v>594974.3931778221</v>
       </c>
       <c r="R23" t="n">
-        <v>6396133.234054895</v>
+        <v>6396223.726530103</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3261,7 +3263,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3271,7 +3273,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3280,28 +3282,29 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111538100</v>
+        <v>111538147</v>
       </c>
       <c r="B24" t="n">
-        <v>89425</v>
+        <v>103288</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3310,38 +3313,35 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5442</v>
+        <v>221144</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3349,10 +3349,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>594974.3931778221</v>
+        <v>594796.7697831856</v>
       </c>
       <c r="R24" t="n">
-        <v>6396223.726530103</v>
+        <v>6396123.320251373</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111557317</v>
+        <v>111557356</v>
       </c>
       <c r="B25" t="n">
         <v>96348</v>
@@ -3474,10 +3474,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>595102.7158081263</v>
+        <v>595109.7638816066</v>
       </c>
       <c r="R25" t="n">
-        <v>6396028.929247913</v>
+        <v>6396025.3526209</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3547,10 +3547,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111557425</v>
+        <v>111557447</v>
       </c>
       <c r="B26" t="n">
-        <v>103288</v>
+        <v>89425</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3559,39 +3559,38 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>221144</v>
+        <v>5442</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3599,10 +3598,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>595135.6715832634</v>
+        <v>595123.8555299225</v>
       </c>
       <c r="R26" t="n">
-        <v>6396085.308774129</v>
+        <v>6396086.634433704</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3645,6 +3644,11 @@
       <c r="AB26" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>På samma tall!</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3672,10 +3676,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111557458</v>
+        <v>111557388</v>
       </c>
       <c r="B27" t="n">
-        <v>103288</v>
+        <v>96348</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3684,30 +3688,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>200</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -3724,10 +3728,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>594776.3629612414</v>
+        <v>595120.4338386087</v>
       </c>
       <c r="R27" t="n">
-        <v>6396125.514572047</v>
+        <v>6396027.207820597</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3797,10 +3801,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111557447</v>
+        <v>111557317</v>
       </c>
       <c r="B28" t="n">
-        <v>89425</v>
+        <v>96348</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3809,38 +3813,39 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5442</v>
+        <v>220787</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3848,10 +3853,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>595123.8555299225</v>
+        <v>595102.7158081263</v>
       </c>
       <c r="R28" t="n">
-        <v>6396086.634433704</v>
+        <v>6396028.929247913</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3894,11 +3899,6 @@
       <c r="AB28" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>På samma tall!</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3926,10 +3926,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111557388</v>
+        <v>111557425</v>
       </c>
       <c r="B29" t="n">
-        <v>96348</v>
+        <v>103288</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -3978,10 +3978,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>595120.4338386087</v>
+        <v>595135.6715832634</v>
       </c>
       <c r="R29" t="n">
-        <v>6396027.207820597</v>
+        <v>6396085.308774129</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4051,10 +4051,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111557356</v>
+        <v>111557458</v>
       </c>
       <c r="B30" t="n">
-        <v>96348</v>
+        <v>103288</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4063,30 +4063,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -4103,10 +4103,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>595109.7638816066</v>
+        <v>594776.3629612414</v>
       </c>
       <c r="R30" t="n">
-        <v>6396025.3526209</v>
+        <v>6396125.514572047</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>

--- a/artfynd/A 30779-2023.xlsx
+++ b/artfynd/A 30779-2023.xlsx
@@ -1507,10 +1507,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111534059</v>
+        <v>111531519</v>
       </c>
       <c r="B9" t="n">
-        <v>103288</v>
+        <v>56543</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1519,51 +1519,47 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>221144</v>
+        <v>103021</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>upprörd, varnande</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Stenhagen (Stenhagen), Sm</t>
+          <t>Storön (Storön), Sm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>594794.6408354465</v>
+        <v>595038.3009655987</v>
       </c>
       <c r="R9" t="n">
-        <v>6396122.73565076</v>
+        <v>6396057.353625069</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1592,7 +1588,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1602,7 +1598,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1629,7 +1625,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111533775</v>
+        <v>111534212</v>
       </c>
       <c r="B10" t="n">
         <v>103288</v>
@@ -1662,27 +1658,18 @@
           <t>Sw.</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Stenhagen (Stenhagen), Sm</t>
+          <t>Dagsbo; Verkebäcksviken (Dagsbo; Verkebäcksviken), Sm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>594770.3573293557</v>
+        <v>594805.9416275211</v>
       </c>
       <c r="R10" t="n">
-        <v>6396153.174710296</v>
+        <v>6396074.883175282</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1714,7 +1701,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1724,7 +1711,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1751,10 +1738,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111533687</v>
+        <v>111537932</v>
       </c>
       <c r="B11" t="n">
-        <v>103288</v>
+        <v>55602</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1763,51 +1750,50 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>221144</v>
+        <v>100070</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Sandödla</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lacerta agilis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Storön (Storön), Sm</t>
+          <t>A 30779, Storön, Sm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>594778.8316844747</v>
+        <v>595043.4620112276</v>
       </c>
       <c r="R11" t="n">
-        <v>6396180.10514512</v>
+        <v>6395974.603720695</v>
       </c>
       <c r="S11" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1836,7 +1822,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>17:08</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1846,7 +1832,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>17:08</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1855,28 +1841,29 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111531519</v>
+        <v>111533937</v>
       </c>
       <c r="B12" t="n">
-        <v>56543</v>
+        <v>103288</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1885,47 +1872,42 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>103021</v>
+        <v>221144</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>upprörd, varnande</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Storön (Storön), Sm</t>
+          <t>Stenhagen (Stenhagen), Sm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>595038.3009655987</v>
+        <v>594785.00034439</v>
       </c>
       <c r="R12" t="n">
-        <v>6396057.353625069</v>
+        <v>6396145.498780883</v>
       </c>
       <c r="S12" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1954,7 +1936,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:23</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1964,7 +1946,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:23</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1991,7 +1973,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111534032</v>
+        <v>111534111</v>
       </c>
       <c r="B13" t="n">
         <v>103288</v>
@@ -2028,14 +2010,14 @@
       <c r="K13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Stenhagen (Stenhagen), Sm</t>
+          <t>Dagsbo; Verkebäcksviken (Dagsbo; Verkebäcksviken), Sm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>594793.6954899583</v>
+        <v>594805.9667103711</v>
       </c>
       <c r="R13" t="n">
-        <v>6396117.367083212</v>
+        <v>6396073.814475322</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -2067,7 +2049,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>17:27</t>
+          <t>17:33</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2077,7 +2059,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>17:27</t>
+          <t>17:33</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2104,10 +2086,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111531683</v>
+        <v>111538100</v>
       </c>
       <c r="B14" t="n">
-        <v>96348</v>
+        <v>89425</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2116,51 +2098,52 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>5442</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Storön (Storön), Sm</t>
+          <t>A 30779, Storön, Sm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>595121.2346721888</v>
+        <v>594974.3931778221</v>
       </c>
       <c r="R14" t="n">
-        <v>6396061.4443192</v>
+        <v>6396223.726530103</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2189,7 +2172,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2199,7 +2182,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2208,25 +2191,26 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111533937</v>
+        <v>111538147</v>
       </c>
       <c r="B15" t="n">
         <v>103288</v>
@@ -2260,20 +2244,27 @@
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Stenhagen (Stenhagen), Sm</t>
+          <t>A 30779, Storön, Sm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>594785.00034439</v>
+        <v>594796.7697831856</v>
       </c>
       <c r="R15" t="n">
-        <v>6396145.498780883</v>
+        <v>6396123.320251373</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2302,7 +2293,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2312,7 +2303,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2321,28 +2312,29 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111533906</v>
+        <v>111534059</v>
       </c>
       <c r="B16" t="n">
-        <v>96348</v>
+        <v>103288</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2351,30 +2343,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2389,13 +2381,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>594786.359476931</v>
+        <v>594794.6408354465</v>
       </c>
       <c r="R16" t="n">
-        <v>6396133.234054895</v>
+        <v>6396122.73565076</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2424,7 +2416,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2434,7 +2426,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2461,10 +2453,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111534111</v>
+        <v>111533906</v>
       </c>
       <c r="B17" t="n">
-        <v>103288</v>
+        <v>96348</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2473,39 +2465,48 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Dagsbo; Verkebäcksviken (Dagsbo; Verkebäcksviken), Sm</t>
+          <t>Stenhagen (Stenhagen), Sm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>594805.9667103711</v>
+        <v>594786.359476931</v>
       </c>
       <c r="R17" t="n">
-        <v>6396073.814475322</v>
+        <v>6396133.234054895</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -2537,7 +2538,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>17:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2547,7 +2548,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>17:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2574,10 +2575,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111537976</v>
+        <v>111534032</v>
       </c>
       <c r="B18" t="n">
-        <v>96348</v>
+        <v>103288</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2586,53 +2587,42 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>A 30779, Storön, Sm</t>
+          <t>Stenhagen (Stenhagen), Sm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>595117.0271231972</v>
+        <v>594793.6954899583</v>
       </c>
       <c r="R18" t="n">
-        <v>6396058.137349035</v>
+        <v>6396117.367083212</v>
       </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2661,7 +2651,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:27</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2671,7 +2661,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:27</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2680,26 +2670,25 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111538210</v>
+        <v>111534246</v>
       </c>
       <c r="B19" t="n">
         <v>103288</v>
@@ -2732,28 +2721,30 @@
           <t>Sw.</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>A 30779, Storön, Sm</t>
+          <t>Dagsbo; Verkebäcksviken (Dagsbo; Verkebäcksviken), Sm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>594797.6524209575</v>
+        <v>594820.5764323578</v>
       </c>
       <c r="R19" t="n">
-        <v>6396131.360525105</v>
+        <v>6396044.751846077</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2782,7 +2773,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2792,7 +2783,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2801,26 +2792,25 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111534212</v>
+        <v>111538210</v>
       </c>
       <c r="B20" t="n">
         <v>103288</v>
@@ -2854,20 +2844,27 @@
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Dagsbo; Verkebäcksviken (Dagsbo; Verkebäcksviken), Sm</t>
+          <t>A 30779, Storön, Sm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>594805.9416275211</v>
+        <v>594797.6524209575</v>
       </c>
       <c r="R20" t="n">
-        <v>6396074.883175282</v>
+        <v>6396131.360525105</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2896,7 +2893,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2906,7 +2903,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2915,25 +2912,26 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111534246</v>
+        <v>111533775</v>
       </c>
       <c r="B21" t="n">
         <v>103288</v>
@@ -2968,7 +2966,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -2979,14 +2977,14 @@
       <c r="K21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Dagsbo; Verkebäcksviken (Dagsbo; Verkebäcksviken), Sm</t>
+          <t>Stenhagen (Stenhagen), Sm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>594820.5764323578</v>
+        <v>594770.3573293557</v>
       </c>
       <c r="R21" t="n">
-        <v>6396044.751846077</v>
+        <v>6396153.174710296</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -3018,7 +3016,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3028,7 +3026,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3055,10 +3053,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111537932</v>
+        <v>111537976</v>
       </c>
       <c r="B22" t="n">
-        <v>55602</v>
+        <v>96348</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3071,32 +3069,35 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100070</v>
+        <v>220787</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Sandödla</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lacerta agilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3104,10 +3105,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>595043.4620112276</v>
+        <v>595117.0271231972</v>
       </c>
       <c r="R22" t="n">
-        <v>6395974.603720695</v>
+        <v>6396058.137349035</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3177,10 +3178,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111538100</v>
+        <v>111531683</v>
       </c>
       <c r="B23" t="n">
-        <v>89425</v>
+        <v>96348</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3189,52 +3190,51 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5442</v>
+        <v>220787</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>35</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>A 30779, Storön, Sm</t>
+          <t>Storön (Storön), Sm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>594974.3931778221</v>
+        <v>595121.2346721888</v>
       </c>
       <c r="R23" t="n">
-        <v>6396223.726530103</v>
+        <v>6396061.4443192</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3282,26 +3282,25 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111538147</v>
+        <v>111533687</v>
       </c>
       <c r="B24" t="n">
         <v>103288</v>
@@ -3334,28 +3333,30 @@
           <t>Sw.</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="J24" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>A 30779, Storön, Sm</t>
+          <t>Storön (Storön), Sm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>594796.7697831856</v>
+        <v>594778.8316844747</v>
       </c>
       <c r="R24" t="n">
-        <v>6396123.320251373</v>
+        <v>6396180.10514512</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3384,7 +3385,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:08</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3394,7 +3395,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:08</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3403,26 +3404,25 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Magnus Kasselstrand, Louise Lundberg, Eddy Kasselstrand, Sofia  Kasselstrand </t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111557356</v>
+        <v>111557317</v>
       </c>
       <c r="B25" t="n">
         <v>96348</v>
@@ -3474,10 +3474,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>595109.7638816066</v>
+        <v>595102.7158081263</v>
       </c>
       <c r="R25" t="n">
-        <v>6396025.3526209</v>
+        <v>6396028.929247913</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3547,10 +3547,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111557447</v>
+        <v>111557458</v>
       </c>
       <c r="B26" t="n">
-        <v>89425</v>
+        <v>103288</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3559,38 +3559,39 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5442</v>
+        <v>221144</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3598,10 +3599,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>595123.8555299225</v>
+        <v>594776.3629612414</v>
       </c>
       <c r="R26" t="n">
-        <v>6396086.634433704</v>
+        <v>6396125.514572047</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3644,11 +3645,6 @@
       <c r="AB26" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>På samma tall!</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3676,10 +3672,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111557388</v>
+        <v>111557425</v>
       </c>
       <c r="B27" t="n">
-        <v>96348</v>
+        <v>103288</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3688,30 +3684,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -3728,10 +3724,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>595120.4338386087</v>
+        <v>595135.6715832634</v>
       </c>
       <c r="R27" t="n">
-        <v>6396027.207820597</v>
+        <v>6396085.308774129</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3801,10 +3797,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111557317</v>
+        <v>111557447</v>
       </c>
       <c r="B28" t="n">
-        <v>96348</v>
+        <v>89425</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3813,39 +3809,38 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>220787</v>
+        <v>5442</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3853,10 +3848,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>595102.7158081263</v>
+        <v>595123.8555299225</v>
       </c>
       <c r="R28" t="n">
-        <v>6396028.929247913</v>
+        <v>6396086.634433704</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3899,6 +3894,11 @@
       <c r="AB28" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>På samma tall!</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3926,10 +3926,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111557425</v>
+        <v>111557388</v>
       </c>
       <c r="B29" t="n">
-        <v>103288</v>
+        <v>96348</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>200</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -3978,10 +3978,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>595135.6715832634</v>
+        <v>595120.4338386087</v>
       </c>
       <c r="R29" t="n">
-        <v>6396085.308774129</v>
+        <v>6396027.207820597</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4051,10 +4051,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111557458</v>
+        <v>111557356</v>
       </c>
       <c r="B30" t="n">
-        <v>103288</v>
+        <v>96348</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4063,30 +4063,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -4103,10 +4103,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>594776.3629612414</v>
+        <v>595109.7638816066</v>
       </c>
       <c r="R30" t="n">
-        <v>6396125.514572047</v>
+        <v>6396025.3526209</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>

--- a/artfynd/A 30779-2023.xlsx
+++ b/artfynd/A 30779-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY31"/>
+  <dimension ref="A1:AY38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4296,6 +4296,882 @@
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>112203732</v>
+      </c>
+      <c r="B32" t="n">
+        <v>90658</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>A 30779, Storön, Sm</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>594803.3283005389</v>
+      </c>
+      <c r="R32" t="n">
+        <v>6396140.582550677</v>
+      </c>
+      <c r="S32" t="n">
+        <v>10</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Västervik</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Gladhammar</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand, Ingvor Kasselstrand, Gunilla Nilsson, Larsgunnar Nilsson</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>112204167</v>
+      </c>
+      <c r="B33" t="n">
+        <v>90689</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>A 30799, Storön, Sm</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>594925.0145863529</v>
+      </c>
+      <c r="R33" t="n">
+        <v>6396227.912029894</v>
+      </c>
+      <c r="S33" t="n">
+        <v>100</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Västervik</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Gladhammar</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>2+7+1</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand, Ingvor Kasselstrand, Gunilla Nilsson, Larsgunnar Nilsson</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>112204311</v>
+      </c>
+      <c r="B34" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Storön, Samsvik, Sm</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>595112.440808123</v>
+      </c>
+      <c r="R34" t="n">
+        <v>6396025.415650645</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Västervik</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Gladhammar</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Larsgunnar Nilsson</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>Larsgunnar Nilsson, Gunilla Nilsson, Ingvor Kasselstrand, Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>112203737</v>
+      </c>
+      <c r="B35" t="n">
+        <v>90709</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>5448</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Svartvit taggsvamp</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Phellodon connatus</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>A 30779, Storön, Sm</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>594803.3283005389</v>
+      </c>
+      <c r="R35" t="n">
+        <v>6396140.582550677</v>
+      </c>
+      <c r="S35" t="n">
+        <v>10</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Västervik</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Gladhammar</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand, Ingvor Kasselstrand, Gunilla Nilsson, Larsgunnar Nilsson</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>112204297</v>
+      </c>
+      <c r="B36" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Storön, Samsvik, Sm</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>595097.205446711</v>
+      </c>
+      <c r="R36" t="n">
+        <v>6396058.205299424</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Västervik</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Gladhammar</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Larsgunnar Nilsson</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>Larsgunnar Nilsson, Gunilla Nilsson, Ingvor Kasselstrand, Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>112204281</v>
+      </c>
+      <c r="B37" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Storön, Samsvik, Sm</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>595169.0849668512</v>
+      </c>
+      <c r="R37" t="n">
+        <v>6396054.017012647</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Västervik</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Gladhammar</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>Larsgunnar Nilsson</t>
+        </is>
+      </c>
+      <c r="AX37" t="inlineStr">
+        <is>
+          <t>Larsgunnar Nilsson, Gunilla Nilsson, Ingvor Kasselstrand, Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>112203709</v>
+      </c>
+      <c r="B38" t="n">
+        <v>88934</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>5741</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Tjockfotad fingersvamp</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Ramaria flavescens</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>(Schaeff.) R. H. Petersen</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>A 30779, Storön, Sm</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>594781.2239072464</v>
+      </c>
+      <c r="R38" t="n">
+        <v>6396169.468659882</v>
+      </c>
+      <c r="S38" t="n">
+        <v>10</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Västervik</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Gladhammar</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand, Ingvor Kasselstrand, Gunilla Nilsson, Larsgunnar Nilsson</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 30779-2023.xlsx
+++ b/artfynd/A 30779-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY38"/>
+  <dimension ref="A1:AY50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4225,10 +4225,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>594855.4431048479</v>
+        <v>594855</v>
       </c>
       <c r="R31" t="n">
-        <v>6396225.208369784</v>
+        <v>6396225</v>
       </c>
       <c r="S31" t="n">
         <v>75</v>
@@ -4258,19 +4258,9 @@
           <t>2023-08-17</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2023-08-17</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4298,10 +4288,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112203732</v>
+        <v>112204297</v>
       </c>
       <c r="B32" t="n">
-        <v>90658</v>
+        <v>96348</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4310,52 +4300,53 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4361</v>
+        <v>220787</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>A 30779, Storön, Sm</t>
+          <t>Storön, Samsvik, Sm</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>594803.3283005389</v>
+        <v>595097</v>
       </c>
       <c r="R32" t="n">
-        <v>6396140.582550677</v>
+        <v>6396058</v>
       </c>
       <c r="S32" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4382,19 +4373,9 @@
           <t>2023-09-19</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA32" t="inlineStr">
         <is>
           <t>2023-09-19</t>
-        </is>
-      </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4410,22 +4391,22 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Larsgunnar Nilsson</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand, Ingvor Kasselstrand, Gunilla Nilsson, Larsgunnar Nilsson</t>
+          <t>Larsgunnar Nilsson, Gunilla Nilsson, Ingvor Kasselstrand, Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112204167</v>
+        <v>112204311</v>
       </c>
       <c r="B33" t="n">
-        <v>90689</v>
+        <v>96348</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4434,52 +4415,53 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5966</v>
+        <v>220787</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>A 30799, Storön, Sm</t>
+          <t>Storön, Samsvik, Sm</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>594925.0145863529</v>
+        <v>595112</v>
       </c>
       <c r="R33" t="n">
-        <v>6396227.912029894</v>
+        <v>6396025</v>
       </c>
       <c r="S33" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4506,24 +4488,9 @@
           <t>2023-09-19</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA33" t="inlineStr">
         <is>
           <t>2023-09-19</t>
-        </is>
-      </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>2+7+1</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4539,22 +4506,22 @@
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Larsgunnar Nilsson</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand, Ingvor Kasselstrand, Gunilla Nilsson, Larsgunnar Nilsson</t>
+          <t>Larsgunnar Nilsson, Gunilla Nilsson, Ingvor Kasselstrand, Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112204311</v>
+        <v>112203709</v>
       </c>
       <c r="B34" t="n">
-        <v>96348</v>
+        <v>88934</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4563,53 +4530,52 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>220787</v>
+        <v>5741</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tjockfotad fingersvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Ramaria flavescens</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schaeff.) R. H. Petersen</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Storön, Samsvik, Sm</t>
+          <t>A 30779, Storön, Sm</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>595112.440808123</v>
+        <v>594781</v>
       </c>
       <c r="R34" t="n">
-        <v>6396025.415650645</v>
+        <v>6396169</v>
       </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4636,19 +4602,9 @@
           <t>2023-09-19</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA34" t="inlineStr">
         <is>
           <t>2023-09-19</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4664,22 +4620,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Larsgunnar Nilsson</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Larsgunnar Nilsson, Gunilla Nilsson, Ingvor Kasselstrand, Magnus Kasselstrand</t>
+          <t>Magnus Kasselstrand, Ingvor Kasselstrand, Gunilla Nilsson, Larsgunnar Nilsson</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112203737</v>
+        <v>112204167</v>
       </c>
       <c r="B35" t="n">
-        <v>90709</v>
+        <v>90689</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4692,21 +4648,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5448</v>
+        <v>5966</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -4723,17 +4679,17 @@
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>A 30779, Storön, Sm</t>
+          <t>A 30799, Storön, Sm</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>594803.3283005389</v>
+        <v>594925</v>
       </c>
       <c r="R35" t="n">
-        <v>6396140.582550677</v>
+        <v>6396228</v>
       </c>
       <c r="S35" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4760,19 +4716,14 @@
           <t>2023-09-19</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA35" t="inlineStr">
         <is>
           <t>2023-09-19</t>
         </is>
       </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>2+7+1</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4800,10 +4751,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112204297</v>
+        <v>112203732</v>
       </c>
       <c r="B36" t="n">
-        <v>96348</v>
+        <v>90658</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4812,53 +4763,52 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>220787</v>
+        <v>4361</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Storön, Samsvik, Sm</t>
+          <t>A 30779, Storön, Sm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>595097.205446711</v>
+        <v>594803</v>
       </c>
       <c r="R36" t="n">
-        <v>6396058.205299424</v>
+        <v>6396141</v>
       </c>
       <c r="S36" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4885,19 +4835,9 @@
           <t>2023-09-19</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2023-09-19</t>
-        </is>
-      </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4913,12 +4853,12 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Larsgunnar Nilsson</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Larsgunnar Nilsson, Gunilla Nilsson, Ingvor Kasselstrand, Magnus Kasselstrand</t>
+          <t>Magnus Kasselstrand, Ingvor Kasselstrand, Gunilla Nilsson, Larsgunnar Nilsson</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
@@ -4977,10 +4917,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>595169.0849668512</v>
+        <v>595169</v>
       </c>
       <c r="R37" t="n">
-        <v>6396054.017012647</v>
+        <v>6396054</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -5010,19 +4950,9 @@
           <t>2023-09-19</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA37" t="inlineStr">
         <is>
           <t>2023-09-19</t>
-        </is>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5050,10 +4980,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112203709</v>
+        <v>112203737</v>
       </c>
       <c r="B38" t="n">
-        <v>88934</v>
+        <v>90709</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5062,30 +4992,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5741</v>
+        <v>5448</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tjockfotad fingersvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Ramaria flavescens</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Schaeff.) R. H. Petersen</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -5101,10 +5031,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>594781.2239072464</v>
+        <v>594803</v>
       </c>
       <c r="R38" t="n">
-        <v>6396169.468659882</v>
+        <v>6396141</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5134,19 +5064,9 @@
           <t>2023-09-19</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA38" t="inlineStr">
         <is>
           <t>2023-09-19</t>
-        </is>
-      </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5171,6 +5091,1505 @@
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>112236282</v>
+      </c>
+      <c r="B39" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>A 30779, Storön, Sm</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>594909</v>
+      </c>
+      <c r="R39" t="n">
+        <v>6396198</v>
+      </c>
+      <c r="S39" t="n">
+        <v>10</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Västervik</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Gladhammar</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>10:45</t>
+        </is>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand, Greger Ström</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>112236300</v>
+      </c>
+      <c r="B40" t="n">
+        <v>103288</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>221144</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Grönpyrola</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Pyrola chlorantha</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>A 30779, Storön, Sm</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>594877</v>
+      </c>
+      <c r="R40" t="n">
+        <v>6396173</v>
+      </c>
+      <c r="S40" t="n">
+        <v>10</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Västervik</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Gladhammar</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>10:45</t>
+        </is>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="inlineStr"/>
+      <c r="AG40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand, Greger Ström</t>
+        </is>
+      </c>
+      <c r="AY40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>112236468</v>
+      </c>
+      <c r="B41" t="n">
+        <v>103288</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>221144</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Grönpyrola</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Pyrola chlorantha</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>A 30779, Storön, Sm</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>594918</v>
+      </c>
+      <c r="R41" t="n">
+        <v>6396098</v>
+      </c>
+      <c r="S41" t="n">
+        <v>10</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Västervik</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Gladhammar</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>10:45</t>
+        </is>
+      </c>
+      <c r="AD41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="inlineStr"/>
+      <c r="AG41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AW41" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AX41" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand, Greger Ström</t>
+        </is>
+      </c>
+      <c r="AY41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>112236205</v>
+      </c>
+      <c r="B42" t="n">
+        <v>89425</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>5442</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Tallticka</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Porodaedalea pini</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>A 30779, Storön, Sm</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>594931</v>
+      </c>
+      <c r="R42" t="n">
+        <v>6396214</v>
+      </c>
+      <c r="S42" t="n">
+        <v>10</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Västervik</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Gladhammar</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>10:45</t>
+        </is>
+      </c>
+      <c r="AD42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="inlineStr"/>
+      <c r="AG42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="inlineStr"/>
+      <c r="AW42" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AX42" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand, Greger Ström</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>112236222</v>
+      </c>
+      <c r="B43" t="n">
+        <v>89802</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>5420</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Grovticka</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Phaeolus schweinitzii</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>(Fr.) Pat.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>A 30779, Storön, Sm</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>594933</v>
+      </c>
+      <c r="R43" t="n">
+        <v>6396201</v>
+      </c>
+      <c r="S43" t="n">
+        <v>10</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Västervik</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Gladhammar</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>10:45</t>
+        </is>
+      </c>
+      <c r="AD43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF43" t="inlineStr"/>
+      <c r="AG43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT43" t="inlineStr"/>
+      <c r="AW43" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AX43" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand, Greger Ström</t>
+        </is>
+      </c>
+      <c r="AY43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>112236248</v>
+      </c>
+      <c r="B44" t="n">
+        <v>89425</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>5442</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Tallticka</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Porodaedalea pini</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>A 30779, Storön, Sm</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>594958</v>
+      </c>
+      <c r="R44" t="n">
+        <v>6396178</v>
+      </c>
+      <c r="S44" t="n">
+        <v>10</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Västervik</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Gladhammar</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>10:45</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>Två olika tallar.</t>
+        </is>
+      </c>
+      <c r="AD44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF44" t="inlineStr"/>
+      <c r="AG44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT44" t="inlineStr"/>
+      <c r="AW44" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AX44" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand, Greger Ström</t>
+        </is>
+      </c>
+      <c r="AY44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>112236365</v>
+      </c>
+      <c r="B45" t="n">
+        <v>90658</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>A 30779, Storön, Sm</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>594875</v>
+      </c>
+      <c r="R45" t="n">
+        <v>6396234</v>
+      </c>
+      <c r="S45" t="n">
+        <v>10</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Västervik</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Gladhammar</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>10:45</t>
+        </is>
+      </c>
+      <c r="AD45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF45" t="inlineStr"/>
+      <c r="AG45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT45" t="inlineStr"/>
+      <c r="AW45" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AX45" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand, Greger Ström</t>
+        </is>
+      </c>
+      <c r="AY45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>112236402</v>
+      </c>
+      <c r="B46" t="n">
+        <v>103288</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>221144</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Grönpyrola</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Pyrola chlorantha</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>A 30779, Storön, Sm</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>594889</v>
+      </c>
+      <c r="R46" t="n">
+        <v>6396160</v>
+      </c>
+      <c r="S46" t="n">
+        <v>10</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Västervik</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Gladhammar</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>10:45</t>
+        </is>
+      </c>
+      <c r="AD46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="inlineStr"/>
+      <c r="AG46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT46" t="inlineStr"/>
+      <c r="AW46" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AX46" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand, Greger Ström</t>
+        </is>
+      </c>
+      <c r="AY46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>112236185</v>
+      </c>
+      <c r="B47" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>A 30779, Storön, Sm</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>594982</v>
+      </c>
+      <c r="R47" t="n">
+        <v>6396167</v>
+      </c>
+      <c r="S47" t="n">
+        <v>25</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Västervik</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Gladhammar</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>10:45</t>
+        </is>
+      </c>
+      <c r="AD47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="inlineStr"/>
+      <c r="AG47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT47" t="inlineStr"/>
+      <c r="AW47" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AX47" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand, Greger Ström</t>
+        </is>
+      </c>
+      <c r="AY47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>112237682</v>
+      </c>
+      <c r="B48" t="n">
+        <v>90187</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>2014</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Koralltaggsvamp</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Hericium coralloides</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Pers.</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Storön, Sm</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>595194</v>
+      </c>
+      <c r="R48" t="n">
+        <v>6396077</v>
+      </c>
+      <c r="S48" t="n">
+        <v>10</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Västervik</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Gladhammar</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>I granplantering</t>
+        </is>
+      </c>
+      <c r="AD48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF48" t="inlineStr"/>
+      <c r="AG48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT48" t="inlineStr"/>
+      <c r="AW48" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AX48" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand, Greger Ström</t>
+        </is>
+      </c>
+      <c r="AY48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>112236343</v>
+      </c>
+      <c r="B49" t="n">
+        <v>103288</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>221144</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Grönpyrola</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Pyrola chlorantha</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>A 30779, Storön, Sm</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>594869</v>
+      </c>
+      <c r="R49" t="n">
+        <v>6396235</v>
+      </c>
+      <c r="S49" t="n">
+        <v>10</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Västervik</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Gladhammar</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>10:45</t>
+        </is>
+      </c>
+      <c r="AD49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF49" t="inlineStr"/>
+      <c r="AG49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT49" t="inlineStr"/>
+      <c r="AW49" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AX49" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand, Greger Ström</t>
+        </is>
+      </c>
+      <c r="AY49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>112236387</v>
+      </c>
+      <c r="B50" t="n">
+        <v>89816</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>1619</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Apelticka</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Aurantiporus fissilis</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>(Berk. &amp; M.A.Curtis) H.Jahn ex Ryvarden</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>A 30779, Storön, Sm</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>594893</v>
+      </c>
+      <c r="R50" t="n">
+        <v>6396172</v>
+      </c>
+      <c r="S50" t="n">
+        <v>10</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Västervik</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Gladhammar</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>10:45</t>
+        </is>
+      </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>Lågt på asp</t>
+        </is>
+      </c>
+      <c r="AD50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF50" t="inlineStr"/>
+      <c r="AG50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT50" t="inlineStr"/>
+      <c r="AW50" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AX50" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand, Greger Ström</t>
+        </is>
+      </c>
+      <c r="AY50" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 30779-2023.xlsx
+++ b/artfynd/A 30779-2023.xlsx
@@ -4179,7 +4179,7 @@
         <v>111877566</v>
       </c>
       <c r="B31" t="n">
-        <v>52657</v>
+        <v>52665</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4288,10 +4288,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112204297</v>
+        <v>112204167</v>
       </c>
       <c r="B32" t="n">
-        <v>96348</v>
+        <v>90823</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4300,25 +4300,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>220787</v>
+        <v>5966</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -4328,25 +4328,24 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Storön, Samsvik, Sm</t>
+          <t>A 30799, Storön, Sm</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>595097</v>
+        <v>594925</v>
       </c>
       <c r="R32" t="n">
-        <v>6396058</v>
+        <v>6396228</v>
       </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4376,6 +4375,11 @@
       <c r="AA32" t="inlineStr">
         <is>
           <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>2+7+1</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4391,22 +4395,22 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Larsgunnar Nilsson</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Larsgunnar Nilsson, Gunilla Nilsson, Ingvor Kasselstrand, Magnus Kasselstrand</t>
+          <t>Magnus Kasselstrand, Ingvor Kasselstrand, Gunilla Nilsson, Larsgunnar Nilsson</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112204311</v>
+        <v>112204297</v>
       </c>
       <c r="B33" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4438,7 +4442,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -4455,10 +4459,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>595112</v>
+        <v>595097</v>
       </c>
       <c r="R33" t="n">
-        <v>6396025</v>
+        <v>6396058</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4518,10 +4522,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112203709</v>
+        <v>112203732</v>
       </c>
       <c r="B34" t="n">
-        <v>88934</v>
+        <v>90792</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4530,30 +4534,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5741</v>
+        <v>4361</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tjockfotad fingersvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Ramaria flavescens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Schaeff.) R. H. Petersen</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -4569,10 +4573,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>594781</v>
+        <v>594803</v>
       </c>
       <c r="R34" t="n">
-        <v>6396169</v>
+        <v>6396141</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4632,10 +4636,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112204167</v>
+        <v>112204311</v>
       </c>
       <c r="B35" t="n">
-        <v>90689</v>
+        <v>96720</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4644,52 +4648,53 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5966</v>
+        <v>220787</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>A 30799, Storön, Sm</t>
+          <t>Storön, Samsvik, Sm</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>594925</v>
+        <v>595112</v>
       </c>
       <c r="R35" t="n">
-        <v>6396228</v>
+        <v>6396025</v>
       </c>
       <c r="S35" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4719,11 +4724,6 @@
       <c r="AA35" t="inlineStr">
         <is>
           <t>2023-09-19</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>2+7+1</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4739,22 +4739,22 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Larsgunnar Nilsson</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand, Ingvor Kasselstrand, Gunilla Nilsson, Larsgunnar Nilsson</t>
+          <t>Larsgunnar Nilsson, Gunilla Nilsson, Ingvor Kasselstrand, Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112203732</v>
+        <v>112203709</v>
       </c>
       <c r="B36" t="n">
-        <v>90658</v>
+        <v>89068</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4763,30 +4763,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4361</v>
+        <v>5741</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Tjockfotad fingersvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria flavescens</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schaeff.) R. H. Petersen</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -4802,10 +4802,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>594803</v>
+        <v>594781</v>
       </c>
       <c r="R36" t="n">
-        <v>6396141</v>
+        <v>6396169</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4865,10 +4865,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112204281</v>
+        <v>112203737</v>
       </c>
       <c r="B37" t="n">
-        <v>96348</v>
+        <v>90843</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4877,25 +4877,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>220787</v>
+        <v>5448</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -4905,25 +4905,24 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Storön, Samsvik, Sm</t>
+          <t>A 30779, Storön, Sm</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>595169</v>
+        <v>594803</v>
       </c>
       <c r="R37" t="n">
-        <v>6396054</v>
+        <v>6396141</v>
       </c>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4968,22 +4967,22 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Larsgunnar Nilsson</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Larsgunnar Nilsson, Gunilla Nilsson, Ingvor Kasselstrand, Magnus Kasselstrand</t>
+          <t>Magnus Kasselstrand, Ingvor Kasselstrand, Gunilla Nilsson, Larsgunnar Nilsson</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112203737</v>
+        <v>112204281</v>
       </c>
       <c r="B38" t="n">
-        <v>90709</v>
+        <v>96720</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4992,25 +4991,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5448</v>
+        <v>220787</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -5020,24 +5019,25 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>A 30779, Storön, Sm</t>
+          <t>Storön, Samsvik, Sm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>594803</v>
+        <v>595169</v>
       </c>
       <c r="R38" t="n">
-        <v>6396141</v>
+        <v>6396054</v>
       </c>
       <c r="S38" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5082,22 +5082,22 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Larsgunnar Nilsson</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand, Ingvor Kasselstrand, Gunilla Nilsson, Larsgunnar Nilsson</t>
+          <t>Larsgunnar Nilsson, Gunilla Nilsson, Ingvor Kasselstrand, Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112236282</v>
+        <v>112236300</v>
       </c>
       <c r="B39" t="n">
-        <v>96348</v>
+        <v>103755</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5106,30 +5106,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -5146,10 +5146,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>594909</v>
+        <v>594877</v>
       </c>
       <c r="R39" t="n">
-        <v>6396198</v>
+        <v>6396173</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5219,10 +5219,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112236300</v>
+        <v>112236248</v>
       </c>
       <c r="B40" t="n">
-        <v>103288</v>
+        <v>89559</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5231,39 +5231,38 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>221144</v>
+        <v>5442</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
@@ -5271,10 +5270,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>594877</v>
+        <v>594958</v>
       </c>
       <c r="R40" t="n">
-        <v>6396173</v>
+        <v>6396178</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5317,6 +5316,11 @@
       <c r="AB40" t="inlineStr">
         <is>
           <t>10:45</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>Två olika tallar.</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5344,10 +5348,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112236468</v>
+        <v>112236343</v>
       </c>
       <c r="B41" t="n">
-        <v>103288</v>
+        <v>103755</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5379,7 +5383,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -5396,10 +5400,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>594918</v>
+        <v>594869</v>
       </c>
       <c r="R41" t="n">
-        <v>6396098</v>
+        <v>6396235</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5469,10 +5473,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112236205</v>
+        <v>112236402</v>
       </c>
       <c r="B42" t="n">
-        <v>89425</v>
+        <v>103755</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5481,38 +5485,39 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5442</v>
+        <v>221144</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
@@ -5520,10 +5525,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>594931</v>
+        <v>594889</v>
       </c>
       <c r="R42" t="n">
-        <v>6396214</v>
+        <v>6396160</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5593,10 +5598,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112236222</v>
+        <v>112236205</v>
       </c>
       <c r="B43" t="n">
-        <v>89802</v>
+        <v>89559</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5605,25 +5610,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5420</v>
+        <v>5442</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Phaeolus schweinitzii</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Fr.) Pat.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -5633,7 +5638,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -5644,10 +5649,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>594933</v>
+        <v>594931</v>
       </c>
       <c r="R43" t="n">
-        <v>6396201</v>
+        <v>6396214</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5717,10 +5722,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>112236248</v>
+        <v>112236468</v>
       </c>
       <c r="B44" t="n">
-        <v>89425</v>
+        <v>103755</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5729,38 +5734,39 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5442</v>
+        <v>221144</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
@@ -5768,10 +5774,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>594958</v>
+        <v>594918</v>
       </c>
       <c r="R44" t="n">
-        <v>6396178</v>
+        <v>6396098</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5814,11 +5820,6 @@
       <c r="AB44" t="inlineStr">
         <is>
           <t>10:45</t>
-        </is>
-      </c>
-      <c r="AC44" t="inlineStr">
-        <is>
-          <t>Två olika tallar.</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5849,7 +5850,7 @@
         <v>112236365</v>
       </c>
       <c r="B45" t="n">
-        <v>90658</v>
+        <v>90792</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5970,10 +5971,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112236402</v>
+        <v>112237682</v>
       </c>
       <c r="B46" t="n">
-        <v>103288</v>
+        <v>90321</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5982,50 +5983,49 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>221144</v>
+        <v>2014</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Koralltaggsvamp</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hericium coralloides</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Scop.:Fr.) Pers.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>A 30779, Storön, Sm</t>
+          <t>Storön, Sm</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>594889</v>
+        <v>595194</v>
       </c>
       <c r="R46" t="n">
-        <v>6396160</v>
+        <v>6396077</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6055,19 +6055,14 @@
           <t>2023-09-21</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>07:30</t>
-        </is>
-      </c>
       <c r="AA46" t="inlineStr">
         <is>
           <t>2023-09-21</t>
         </is>
       </c>
-      <c r="AB46" t="inlineStr">
-        <is>
-          <t>10:45</t>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>I granplantering</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -6098,7 +6093,7 @@
         <v>112236185</v>
       </c>
       <c r="B47" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6220,10 +6215,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112237682</v>
+        <v>112236282</v>
       </c>
       <c r="B48" t="n">
-        <v>90187</v>
+        <v>96720</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6232,49 +6227,50 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2014</v>
+        <v>220787</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Koralltaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hericium coralloides</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Pers.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Storön, Sm</t>
+          <t>A 30779, Storön, Sm</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>595194</v>
+        <v>594909</v>
       </c>
       <c r="R48" t="n">
-        <v>6396077</v>
+        <v>6396198</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6304,14 +6300,19 @@
           <t>2023-09-21</t>
         </is>
       </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
       <c r="AA48" t="inlineStr">
         <is>
           <t>2023-09-21</t>
         </is>
       </c>
-      <c r="AC48" t="inlineStr">
-        <is>
-          <t>I granplantering</t>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>10:45</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6339,10 +6340,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112236343</v>
+        <v>112236222</v>
       </c>
       <c r="B49" t="n">
-        <v>103288</v>
+        <v>89936</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6355,35 +6356,34 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>221144</v>
+        <v>5420</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Phaeolus schweinitzii</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Fr.) Pat.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
@@ -6391,10 +6391,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>594869</v>
+        <v>594933</v>
       </c>
       <c r="R49" t="n">
-        <v>6396235</v>
+        <v>6396201</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6467,7 +6467,7 @@
         <v>112236387</v>
       </c>
       <c r="B50" t="n">
-        <v>89816</v>
+        <v>89951</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>

--- a/artfynd/A 30779-2023.xlsx
+++ b/artfynd/A 30779-2023.xlsx
@@ -4288,10 +4288,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112204167</v>
+        <v>112204297</v>
       </c>
       <c r="B32" t="n">
-        <v>90823</v>
+        <v>96735</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4300,25 +4300,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5966</v>
+        <v>220787</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -4328,24 +4328,25 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>A 30799, Storön, Sm</t>
+          <t>Storön, Samsvik, Sm</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>594925</v>
+        <v>595097</v>
       </c>
       <c r="R32" t="n">
-        <v>6396228</v>
+        <v>6396058</v>
       </c>
       <c r="S32" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4375,11 +4376,6 @@
       <c r="AA32" t="inlineStr">
         <is>
           <t>2023-09-19</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>2+7+1</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4395,22 +4391,22 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Larsgunnar Nilsson</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand, Ingvor Kasselstrand, Gunilla Nilsson, Larsgunnar Nilsson</t>
+          <t>Larsgunnar Nilsson, Gunilla Nilsson, Ingvor Kasselstrand, Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112204297</v>
+        <v>112204167</v>
       </c>
       <c r="B33" t="n">
-        <v>96720</v>
+        <v>90837</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4419,25 +4415,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>220787</v>
+        <v>5966</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -4447,25 +4443,24 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Storön, Samsvik, Sm</t>
+          <t>A 30799, Storön, Sm</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>595097</v>
+        <v>594925</v>
       </c>
       <c r="R33" t="n">
-        <v>6396058</v>
+        <v>6396228</v>
       </c>
       <c r="S33" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4495,6 +4490,11 @@
       <c r="AA33" t="inlineStr">
         <is>
           <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>2+7+1</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4510,22 +4510,22 @@
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Larsgunnar Nilsson</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Larsgunnar Nilsson, Gunilla Nilsson, Ingvor Kasselstrand, Magnus Kasselstrand</t>
+          <t>Magnus Kasselstrand, Ingvor Kasselstrand, Gunilla Nilsson, Larsgunnar Nilsson</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112203732</v>
+        <v>112203737</v>
       </c>
       <c r="B34" t="n">
-        <v>90792</v>
+        <v>90857</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4538,26 +4538,26 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4361</v>
+        <v>5448</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -4636,10 +4636,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112204311</v>
+        <v>112203732</v>
       </c>
       <c r="B35" t="n">
-        <v>96720</v>
+        <v>90806</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4648,53 +4648,52 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>220787</v>
+        <v>4361</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Storön, Samsvik, Sm</t>
+          <t>A 30779, Storön, Sm</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>595112</v>
+        <v>594803</v>
       </c>
       <c r="R35" t="n">
-        <v>6396025</v>
+        <v>6396141</v>
       </c>
       <c r="S35" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4739,22 +4738,22 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Larsgunnar Nilsson</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Larsgunnar Nilsson, Gunilla Nilsson, Ingvor Kasselstrand, Magnus Kasselstrand</t>
+          <t>Magnus Kasselstrand, Ingvor Kasselstrand, Gunilla Nilsson, Larsgunnar Nilsson</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112203709</v>
+        <v>112204281</v>
       </c>
       <c r="B36" t="n">
-        <v>89068</v>
+        <v>96735</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4763,52 +4762,53 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5741</v>
+        <v>220787</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tjockfotad fingersvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Ramaria flavescens</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Schaeff.) R. H. Petersen</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>A 30779, Storön, Sm</t>
+          <t>Storön, Samsvik, Sm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>594781</v>
+        <v>595169</v>
       </c>
       <c r="R36" t="n">
-        <v>6396169</v>
+        <v>6396054</v>
       </c>
       <c r="S36" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4853,22 +4853,22 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Larsgunnar Nilsson</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand, Ingvor Kasselstrand, Gunilla Nilsson, Larsgunnar Nilsson</t>
+          <t>Larsgunnar Nilsson, Gunilla Nilsson, Ingvor Kasselstrand, Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112203737</v>
+        <v>112204311</v>
       </c>
       <c r="B37" t="n">
-        <v>90843</v>
+        <v>96735</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4877,52 +4877,53 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5448</v>
+        <v>220787</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>A 30779, Storön, Sm</t>
+          <t>Storön, Samsvik, Sm</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>594803</v>
+        <v>595112</v>
       </c>
       <c r="R37" t="n">
-        <v>6396141</v>
+        <v>6396025</v>
       </c>
       <c r="S37" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4967,22 +4968,22 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Larsgunnar Nilsson</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand, Ingvor Kasselstrand, Gunilla Nilsson, Larsgunnar Nilsson</t>
+          <t>Larsgunnar Nilsson, Gunilla Nilsson, Ingvor Kasselstrand, Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112204281</v>
+        <v>112203709</v>
       </c>
       <c r="B38" t="n">
-        <v>96720</v>
+        <v>89082</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4991,53 +4992,52 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>220787</v>
+        <v>5741</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tjockfotad fingersvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Ramaria flavescens</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schaeff.) R. H. Petersen</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Storön, Samsvik, Sm</t>
+          <t>A 30779, Storön, Sm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>595169</v>
+        <v>594781</v>
       </c>
       <c r="R38" t="n">
-        <v>6396054</v>
+        <v>6396169</v>
       </c>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5082,22 +5082,22 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Larsgunnar Nilsson</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Larsgunnar Nilsson, Gunilla Nilsson, Ingvor Kasselstrand, Magnus Kasselstrand</t>
+          <t>Magnus Kasselstrand, Ingvor Kasselstrand, Gunilla Nilsson, Larsgunnar Nilsson</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112236300</v>
+        <v>112236222</v>
       </c>
       <c r="B39" t="n">
-        <v>103755</v>
+        <v>89950</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5110,35 +5110,34 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>221144</v>
+        <v>5420</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Phaeolus schweinitzii</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Fr.) Pat.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
@@ -5146,10 +5145,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>594877</v>
+        <v>594933</v>
       </c>
       <c r="R39" t="n">
-        <v>6396173</v>
+        <v>6396201</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5219,10 +5218,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112236248</v>
+        <v>112236468</v>
       </c>
       <c r="B40" t="n">
-        <v>89559</v>
+        <v>103781</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5231,38 +5230,39 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5442</v>
+        <v>221144</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
@@ -5270,10 +5270,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>594958</v>
+        <v>594918</v>
       </c>
       <c r="R40" t="n">
-        <v>6396178</v>
+        <v>6396098</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5316,11 +5316,6 @@
       <c r="AB40" t="inlineStr">
         <is>
           <t>10:45</t>
-        </is>
-      </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>Två olika tallar.</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5348,10 +5343,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112236343</v>
+        <v>112236248</v>
       </c>
       <c r="B41" t="n">
-        <v>103755</v>
+        <v>89573</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5360,39 +5355,38 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>221144</v>
+        <v>5442</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
@@ -5400,10 +5394,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>594869</v>
+        <v>594958</v>
       </c>
       <c r="R41" t="n">
-        <v>6396235</v>
+        <v>6396178</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5446,6 +5440,11 @@
       <c r="AB41" t="inlineStr">
         <is>
           <t>10:45</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>Två olika tallar.</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5473,10 +5472,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112236402</v>
+        <v>112236365</v>
       </c>
       <c r="B42" t="n">
-        <v>103755</v>
+        <v>90806</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5485,39 +5484,38 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>221144</v>
+        <v>4361</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
@@ -5525,10 +5523,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>594889</v>
+        <v>594875</v>
       </c>
       <c r="R42" t="n">
-        <v>6396160</v>
+        <v>6396234</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5598,10 +5596,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112236205</v>
+        <v>112237682</v>
       </c>
       <c r="B43" t="n">
-        <v>89559</v>
+        <v>90335</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5614,21 +5612,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5442</v>
+        <v>2014</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Koralltaggsvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Hericium coralloides</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Scop.:Fr.) Pers.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -5645,14 +5643,14 @@
       <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>A 30779, Storön, Sm</t>
+          <t>Storön, Sm</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>594931</v>
+        <v>595194</v>
       </c>
       <c r="R43" t="n">
-        <v>6396214</v>
+        <v>6396077</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5682,19 +5680,14 @@
           <t>2023-09-21</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>07:30</t>
-        </is>
-      </c>
       <c r="AA43" t="inlineStr">
         <is>
           <t>2023-09-21</t>
         </is>
       </c>
-      <c r="AB43" t="inlineStr">
-        <is>
-          <t>10:45</t>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>I granplantering</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5722,10 +5715,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>112236468</v>
+        <v>112236205</v>
       </c>
       <c r="B44" t="n">
-        <v>103755</v>
+        <v>89573</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5734,39 +5727,38 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>221144</v>
+        <v>5442</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
@@ -5774,10 +5766,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>594918</v>
+        <v>594931</v>
       </c>
       <c r="R44" t="n">
-        <v>6396098</v>
+        <v>6396214</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5847,10 +5839,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>112236365</v>
+        <v>112236402</v>
       </c>
       <c r="B45" t="n">
-        <v>90792</v>
+        <v>103781</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5859,38 +5851,39 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4361</v>
+        <v>221144</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
@@ -5898,10 +5891,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>594875</v>
+        <v>594889</v>
       </c>
       <c r="R45" t="n">
-        <v>6396234</v>
+        <v>6396160</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5971,10 +5964,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112237682</v>
+        <v>112236300</v>
       </c>
       <c r="B46" t="n">
-        <v>90321</v>
+        <v>103781</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5983,49 +5976,50 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2014</v>
+        <v>221144</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Koralltaggsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hericium coralloides</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Pers.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Storön, Sm</t>
+          <t>A 30779, Storön, Sm</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>595194</v>
+        <v>594877</v>
       </c>
       <c r="R46" t="n">
-        <v>6396077</v>
+        <v>6396173</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6055,14 +6049,19 @@
           <t>2023-09-21</t>
         </is>
       </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
       <c r="AA46" t="inlineStr">
         <is>
           <t>2023-09-21</t>
         </is>
       </c>
-      <c r="AC46" t="inlineStr">
-        <is>
-          <t>I granplantering</t>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>10:45</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -6090,10 +6089,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112236185</v>
+        <v>112236282</v>
       </c>
       <c r="B47" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6125,7 +6124,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -6142,13 +6141,13 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>594982</v>
+        <v>594909</v>
       </c>
       <c r="R47" t="n">
-        <v>6396167</v>
+        <v>6396198</v>
       </c>
       <c r="S47" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -6215,10 +6214,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112236282</v>
+        <v>112236343</v>
       </c>
       <c r="B48" t="n">
-        <v>96720</v>
+        <v>103781</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6227,25 +6226,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -6267,10 +6266,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>594909</v>
+        <v>594869</v>
       </c>
       <c r="R48" t="n">
-        <v>6396198</v>
+        <v>6396235</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6340,10 +6339,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112236222</v>
+        <v>112236185</v>
       </c>
       <c r="B49" t="n">
-        <v>89936</v>
+        <v>96735</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6352,38 +6351,39 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5420</v>
+        <v>220787</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Phaeolus schweinitzii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Fr.) Pat.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
@@ -6391,13 +6391,13 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>594933</v>
+        <v>594982</v>
       </c>
       <c r="R49" t="n">
-        <v>6396201</v>
+        <v>6396167</v>
       </c>
       <c r="S49" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>112236387</v>
       </c>
       <c r="B50" t="n">
-        <v>89951</v>
+        <v>89965</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>

--- a/artfynd/A 30779-2023.xlsx
+++ b/artfynd/A 30779-2023.xlsx
@@ -4288,7 +4288,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112204297</v>
+        <v>112204281</v>
       </c>
       <c r="B32" t="n">
         <v>96735</v>
@@ -4340,10 +4340,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>595097</v>
+        <v>595169</v>
       </c>
       <c r="R32" t="n">
-        <v>6396058</v>
+        <v>6396054</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4403,10 +4403,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112204167</v>
+        <v>112203709</v>
       </c>
       <c r="B33" t="n">
-        <v>90837</v>
+        <v>89082</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4415,30 +4415,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5966</v>
+        <v>5741</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Tjockfotad fingersvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Ramaria flavescens</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Schaeff.) R. H. Petersen</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -4450,17 +4450,17 @@
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>A 30799, Storön, Sm</t>
+          <t>A 30779, Storön, Sm</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>594925</v>
+        <v>594781</v>
       </c>
       <c r="R33" t="n">
-        <v>6396228</v>
+        <v>6396169</v>
       </c>
       <c r="S33" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4490,11 +4490,6 @@
       <c r="AA33" t="inlineStr">
         <is>
           <t>2023-09-19</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>2+7+1</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4636,10 +4631,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112203732</v>
+        <v>112204311</v>
       </c>
       <c r="B35" t="n">
-        <v>90806</v>
+        <v>96735</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4648,52 +4643,53 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4361</v>
+        <v>220787</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>A 30779, Storön, Sm</t>
+          <t>Storön, Samsvik, Sm</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>594803</v>
+        <v>595112</v>
       </c>
       <c r="R35" t="n">
-        <v>6396141</v>
+        <v>6396025</v>
       </c>
       <c r="S35" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4738,22 +4734,22 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Larsgunnar Nilsson</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand, Ingvor Kasselstrand, Gunilla Nilsson, Larsgunnar Nilsson</t>
+          <t>Larsgunnar Nilsson, Gunilla Nilsson, Ingvor Kasselstrand, Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112204281</v>
+        <v>112203732</v>
       </c>
       <c r="B36" t="n">
-        <v>96735</v>
+        <v>90806</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4762,53 +4758,52 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>220787</v>
+        <v>4361</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Storön, Samsvik, Sm</t>
+          <t>A 30779, Storön, Sm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>595169</v>
+        <v>594803</v>
       </c>
       <c r="R36" t="n">
-        <v>6396054</v>
+        <v>6396141</v>
       </c>
       <c r="S36" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4853,22 +4848,22 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Larsgunnar Nilsson</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Larsgunnar Nilsson, Gunilla Nilsson, Ingvor Kasselstrand, Magnus Kasselstrand</t>
+          <t>Magnus Kasselstrand, Ingvor Kasselstrand, Gunilla Nilsson, Larsgunnar Nilsson</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112204311</v>
+        <v>112204167</v>
       </c>
       <c r="B37" t="n">
-        <v>96735</v>
+        <v>90837</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4877,53 +4872,52 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>220787</v>
+        <v>5966</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Storön, Samsvik, Sm</t>
+          <t>A 30799, Storön, Sm</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>595112</v>
+        <v>594925</v>
       </c>
       <c r="R37" t="n">
-        <v>6396025</v>
+        <v>6396228</v>
       </c>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4953,6 +4947,11 @@
       <c r="AA37" t="inlineStr">
         <is>
           <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>2+7+1</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4968,22 +4967,22 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Larsgunnar Nilsson</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Larsgunnar Nilsson, Gunilla Nilsson, Ingvor Kasselstrand, Magnus Kasselstrand</t>
+          <t>Magnus Kasselstrand, Ingvor Kasselstrand, Gunilla Nilsson, Larsgunnar Nilsson</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112203709</v>
+        <v>112204297</v>
       </c>
       <c r="B38" t="n">
-        <v>89082</v>
+        <v>96735</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4992,52 +4991,53 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5741</v>
+        <v>220787</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tjockfotad fingersvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Ramaria flavescens</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Schaeff.) R. H. Petersen</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>A 30779, Storön, Sm</t>
+          <t>Storön, Samsvik, Sm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>594781</v>
+        <v>595097</v>
       </c>
       <c r="R38" t="n">
-        <v>6396169</v>
+        <v>6396058</v>
       </c>
       <c r="S38" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5082,22 +5082,22 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Larsgunnar Nilsson</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand, Ingvor Kasselstrand, Gunilla Nilsson, Larsgunnar Nilsson</t>
+          <t>Larsgunnar Nilsson, Gunilla Nilsson, Ingvor Kasselstrand, Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112236222</v>
+        <v>112236300</v>
       </c>
       <c r="B39" t="n">
-        <v>89950</v>
+        <v>103781</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5110,34 +5110,35 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5420</v>
+        <v>221144</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Phaeolus schweinitzii</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Fr.) Pat.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
@@ -5145,10 +5146,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>594933</v>
+        <v>594877</v>
       </c>
       <c r="R39" t="n">
-        <v>6396201</v>
+        <v>6396173</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5218,10 +5219,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112236468</v>
+        <v>112236205</v>
       </c>
       <c r="B40" t="n">
-        <v>103781</v>
+        <v>89573</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5230,39 +5231,38 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>221144</v>
+        <v>5442</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
@@ -5270,10 +5270,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>594918</v>
+        <v>594931</v>
       </c>
       <c r="R40" t="n">
-        <v>6396098</v>
+        <v>6396214</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5596,10 +5596,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112237682</v>
+        <v>112236185</v>
       </c>
       <c r="B43" t="n">
-        <v>90335</v>
+        <v>96735</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5608,52 +5608,53 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2014</v>
+        <v>220787</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Koralltaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hericium coralloides</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Pers.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Storön, Sm</t>
+          <t>A 30779, Storön, Sm</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>595194</v>
+        <v>594982</v>
       </c>
       <c r="R43" t="n">
-        <v>6396077</v>
+        <v>6396167</v>
       </c>
       <c r="S43" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5680,14 +5681,19 @@
           <t>2023-09-21</t>
         </is>
       </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
       <c r="AA43" t="inlineStr">
         <is>
           <t>2023-09-21</t>
         </is>
       </c>
-      <c r="AC43" t="inlineStr">
-        <is>
-          <t>I granplantering</t>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>10:45</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5715,10 +5721,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>112236205</v>
+        <v>112236402</v>
       </c>
       <c r="B44" t="n">
-        <v>89573</v>
+        <v>103781</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5727,38 +5733,39 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5442</v>
+        <v>221144</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
@@ -5766,10 +5773,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>594931</v>
+        <v>594889</v>
       </c>
       <c r="R44" t="n">
-        <v>6396214</v>
+        <v>6396160</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5839,10 +5846,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>112236402</v>
+        <v>112236282</v>
       </c>
       <c r="B45" t="n">
-        <v>103781</v>
+        <v>96735</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5851,30 +5858,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -5891,10 +5898,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>594889</v>
+        <v>594909</v>
       </c>
       <c r="R45" t="n">
-        <v>6396160</v>
+        <v>6396198</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5964,7 +5971,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112236300</v>
+        <v>112236343</v>
       </c>
       <c r="B46" t="n">
         <v>103781</v>
@@ -5999,7 +6006,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -6016,10 +6023,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>594877</v>
+        <v>594869</v>
       </c>
       <c r="R46" t="n">
-        <v>6396173</v>
+        <v>6396235</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6089,10 +6096,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112236282</v>
+        <v>112237682</v>
       </c>
       <c r="B47" t="n">
-        <v>96735</v>
+        <v>90335</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6101,50 +6108,49 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>220787</v>
+        <v>2014</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Koralltaggsvamp</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hericium coralloides</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Scop.:Fr.) Pers.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>A 30779, Storön, Sm</t>
+          <t>Storön, Sm</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>594909</v>
+        <v>595194</v>
       </c>
       <c r="R47" t="n">
-        <v>6396198</v>
+        <v>6396077</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6174,19 +6180,14 @@
           <t>2023-09-21</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>07:30</t>
-        </is>
-      </c>
       <c r="AA47" t="inlineStr">
         <is>
           <t>2023-09-21</t>
         </is>
       </c>
-      <c r="AB47" t="inlineStr">
-        <is>
-          <t>10:45</t>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>I granplantering</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6214,7 +6215,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112236343</v>
+        <v>112236468</v>
       </c>
       <c r="B48" t="n">
         <v>103781</v>
@@ -6249,7 +6250,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -6266,10 +6267,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>594869</v>
+        <v>594918</v>
       </c>
       <c r="R48" t="n">
-        <v>6396235</v>
+        <v>6396098</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6339,10 +6340,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112236185</v>
+        <v>112236222</v>
       </c>
       <c r="B49" t="n">
-        <v>96735</v>
+        <v>89950</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6351,39 +6352,38 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>220787</v>
+        <v>5420</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phaeolus schweinitzii</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Pat.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
@@ -6391,13 +6391,13 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>594982</v>
+        <v>594933</v>
       </c>
       <c r="R49" t="n">
-        <v>6396167</v>
+        <v>6396201</v>
       </c>
       <c r="S49" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
